--- a/BackTest/2020-01-24 BackTest AOA.xlsx
+++ b/BackTest/2020-01-24 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.769</v>
+        <v>1.76</v>
       </c>
       <c r="C2" t="n">
-        <v>1.739</v>
+        <v>1.76</v>
       </c>
       <c r="D2" t="n">
-        <v>1.769</v>
+        <v>1.76</v>
       </c>
       <c r="E2" t="n">
-        <v>1.739</v>
+        <v>1.76</v>
       </c>
       <c r="F2" t="n">
-        <v>2072219</v>
+        <v>11050.2961</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7419</v>
+        <v>1.742666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>1.739</v>
       </c>
       <c r="F3" t="n">
-        <v>1479117</v>
+        <v>2072219</v>
       </c>
       <c r="G3" t="n">
-        <v>1.741216666666667</v>
+        <v>1.7419</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C4" t="n">
-        <v>1.75</v>
+        <v>1.739</v>
       </c>
       <c r="D4" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E4" t="n">
-        <v>1.75</v>
+        <v>1.739</v>
       </c>
       <c r="F4" t="n">
-        <v>2308946</v>
+        <v>1479117</v>
       </c>
       <c r="G4" t="n">
-        <v>1.74095</v>
+        <v>1.741216666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>1.75</v>
       </c>
       <c r="F5" t="n">
-        <v>2238570</v>
+        <v>2308946</v>
       </c>
       <c r="G5" t="n">
-        <v>1.740683333333333</v>
+        <v>1.74095</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="C6" t="n">
-        <v>1.769</v>
+        <v>1.75</v>
       </c>
       <c r="D6" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E6" t="n">
-        <v>1.769</v>
+        <v>1.75</v>
       </c>
       <c r="F6" t="n">
-        <v>16958.7338</v>
+        <v>2238570</v>
       </c>
       <c r="G6" t="n">
-        <v>1.740416666666667</v>
+        <v>1.740683333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>1.769</v>
       </c>
       <c r="C7" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="D7" t="n">
         <v>1.769</v>
       </c>
       <c r="E7" t="n">
-        <v>1.75</v>
+        <v>1.769</v>
       </c>
       <c r="F7" t="n">
-        <v>740450</v>
+        <v>16958.7338</v>
       </c>
       <c r="G7" t="n">
-        <v>1.739833333333334</v>
+        <v>1.740416666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>1.769</v>
       </c>
       <c r="C8" t="n">
-        <v>1.769</v>
+        <v>1.75</v>
       </c>
       <c r="D8" t="n">
         <v>1.769</v>
@@ -655,10 +655,10 @@
         <v>1.75</v>
       </c>
       <c r="F8" t="n">
-        <v>3019620</v>
+        <v>740450</v>
       </c>
       <c r="G8" t="n">
-        <v>1.739816666666667</v>
+        <v>1.739833333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="C9" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="D9" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="E9" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F9" t="n">
-        <v>455184</v>
+        <v>3019620</v>
       </c>
       <c r="G9" t="n">
-        <v>1.739566666666667</v>
+        <v>1.739816666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="C10" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="D10" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="E10" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="F10" t="n">
-        <v>759904</v>
+        <v>455184</v>
       </c>
       <c r="G10" t="n">
-        <v>1.739533333333334</v>
+        <v>1.739566666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>1.769</v>
       </c>
       <c r="C11" t="n">
-        <v>1.769</v>
+        <v>1.75</v>
       </c>
       <c r="D11" t="n">
         <v>1.769</v>
@@ -760,10 +760,10 @@
         <v>1.75</v>
       </c>
       <c r="F11" t="n">
-        <v>3049218</v>
+        <v>759904</v>
       </c>
       <c r="G11" t="n">
-        <v>1.739366666666667</v>
+        <v>1.739533333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>1.769</v>
       </c>
       <c r="C12" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="D12" t="n">
         <v>1.769</v>
       </c>
       <c r="E12" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F12" t="n">
-        <v>789956</v>
+        <v>3049218</v>
       </c>
       <c r="G12" t="n">
-        <v>1.739183333333334</v>
+        <v>1.739366666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.749</v>
+        <v>1.769</v>
       </c>
       <c r="C13" t="n">
-        <v>1.749</v>
+        <v>1.751</v>
       </c>
       <c r="D13" t="n">
-        <v>1.749</v>
+        <v>1.769</v>
       </c>
       <c r="E13" t="n">
-        <v>1.749</v>
+        <v>1.751</v>
       </c>
       <c r="F13" t="n">
-        <v>40883.9409</v>
+        <v>789956</v>
       </c>
       <c r="G13" t="n">
-        <v>1.738933333333334</v>
+        <v>1.739183333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="C14" t="n">
-        <v>1.727</v>
+        <v>1.749</v>
       </c>
       <c r="D14" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="E14" t="n">
-        <v>1.727</v>
+        <v>1.749</v>
       </c>
       <c r="F14" t="n">
-        <v>381869.7322</v>
+        <v>40883.9409</v>
       </c>
       <c r="G14" t="n">
-        <v>1.738333333333334</v>
+        <v>1.738933333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.721</v>
+        <v>1.74</v>
       </c>
       <c r="C15" t="n">
-        <v>1.759</v>
+        <v>1.727</v>
       </c>
       <c r="D15" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="E15" t="n">
-        <v>1.716</v>
+        <v>1.727</v>
       </c>
       <c r="F15" t="n">
-        <v>2062446.2529</v>
+        <v>381869.7322</v>
       </c>
       <c r="G15" t="n">
-        <v>1.737916666666667</v>
+        <v>1.738333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>1.721</v>
       </c>
       <c r="C16" t="n">
-        <v>1.721</v>
+        <v>1.759</v>
       </c>
       <c r="D16" t="n">
         <v>1.759</v>
       </c>
       <c r="E16" t="n">
-        <v>1.721</v>
+        <v>1.716</v>
       </c>
       <c r="F16" t="n">
-        <v>1103099</v>
+        <v>2062446.2529</v>
       </c>
       <c r="G16" t="n">
-        <v>1.736950000000001</v>
+        <v>1.737916666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.744</v>
+        <v>1.721</v>
       </c>
       <c r="C17" t="n">
-        <v>1.737</v>
+        <v>1.721</v>
       </c>
       <c r="D17" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="E17" t="n">
-        <v>1.737</v>
+        <v>1.721</v>
       </c>
       <c r="F17" t="n">
-        <v>215282.2249</v>
+        <v>1103099</v>
       </c>
       <c r="G17" t="n">
-        <v>1.736466666666667</v>
+        <v>1.736950000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.742</v>
+        <v>1.744</v>
       </c>
       <c r="C18" t="n">
-        <v>1.742</v>
+        <v>1.737</v>
       </c>
       <c r="D18" t="n">
-        <v>1.742</v>
+        <v>1.744</v>
       </c>
       <c r="E18" t="n">
-        <v>1.742</v>
+        <v>1.737</v>
       </c>
       <c r="F18" t="n">
-        <v>288</v>
+        <v>215282.2249</v>
       </c>
       <c r="G18" t="n">
-        <v>1.736066666666667</v>
+        <v>1.736466666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="C19" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="D19" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="E19" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="F19" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G19" t="n">
-        <v>1.735683333333334</v>
+        <v>1.736066666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.742</v>
+        <v>1.743</v>
       </c>
       <c r="C20" t="n">
-        <v>1.733</v>
+        <v>1.743</v>
       </c>
       <c r="D20" t="n">
-        <v>1.742</v>
+        <v>1.743</v>
       </c>
       <c r="E20" t="n">
-        <v>1.733</v>
+        <v>1.743</v>
       </c>
       <c r="F20" t="n">
-        <v>362411.1979</v>
+        <v>287</v>
       </c>
       <c r="G20" t="n">
-        <v>1.735133333333334</v>
+        <v>1.735683333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.733</v>
+        <v>1.742</v>
       </c>
       <c r="C21" t="n">
         <v>1.733</v>
       </c>
       <c r="D21" t="n">
-        <v>1.733</v>
+        <v>1.742</v>
       </c>
       <c r="E21" t="n">
         <v>1.733</v>
       </c>
       <c r="F21" t="n">
-        <v>75769.3331</v>
+        <v>362411.1979</v>
       </c>
       <c r="G21" t="n">
-        <v>1.734583333333334</v>
+        <v>1.735133333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.733</v>
       </c>
       <c r="F22" t="n">
-        <v>129726.8961</v>
+        <v>75769.3331</v>
       </c>
       <c r="G22" t="n">
-        <v>1.734033333333334</v>
+        <v>1.734583333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>1.733</v>
       </c>
       <c r="C23" t="n">
-        <v>1.723</v>
+        <v>1.733</v>
       </c>
       <c r="D23" t="n">
-        <v>1.742</v>
+        <v>1.733</v>
       </c>
       <c r="E23" t="n">
-        <v>1.723</v>
+        <v>1.733</v>
       </c>
       <c r="F23" t="n">
-        <v>1592136</v>
+        <v>129726.8961</v>
       </c>
       <c r="G23" t="n">
-        <v>1.73305</v>
+        <v>1.734033333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.741</v>
+        <v>1.733</v>
       </c>
       <c r="C24" t="n">
         <v>1.723</v>
       </c>
       <c r="D24" t="n">
-        <v>1.741</v>
+        <v>1.742</v>
       </c>
       <c r="E24" t="n">
         <v>1.723</v>
       </c>
       <c r="F24" t="n">
-        <v>2956891</v>
+        <v>1592136</v>
       </c>
       <c r="G24" t="n">
-        <v>1.732333333333334</v>
+        <v>1.73305</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.723</v>
+        <v>1.741</v>
       </c>
       <c r="C25" t="n">
         <v>1.723</v>
       </c>
       <c r="D25" t="n">
-        <v>1.723</v>
+        <v>1.741</v>
       </c>
       <c r="E25" t="n">
         <v>1.723</v>
       </c>
       <c r="F25" t="n">
-        <v>5052.4298</v>
+        <v>2956891</v>
       </c>
       <c r="G25" t="n">
-        <v>1.731633333333334</v>
+        <v>1.732333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>1.723</v>
       </c>
       <c r="C26" t="n">
-        <v>1.744</v>
+        <v>1.723</v>
       </c>
       <c r="D26" t="n">
-        <v>1.744</v>
+        <v>1.723</v>
       </c>
       <c r="E26" t="n">
         <v>1.723</v>
       </c>
       <c r="F26" t="n">
-        <v>637171.2004</v>
+        <v>5052.4298</v>
       </c>
       <c r="G26" t="n">
-        <v>1.73145</v>
+        <v>1.731633333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.742</v>
+        <v>1.723</v>
       </c>
       <c r="C27" t="n">
-        <v>1.742</v>
+        <v>1.744</v>
       </c>
       <c r="D27" t="n">
-        <v>1.742</v>
+        <v>1.744</v>
       </c>
       <c r="E27" t="n">
-        <v>1.742</v>
+        <v>1.723</v>
       </c>
       <c r="F27" t="n">
-        <v>288</v>
+        <v>637171.2004</v>
       </c>
       <c r="G27" t="n">
-        <v>1.731283333333334</v>
+        <v>1.73145</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.744</v>
+        <v>1.742</v>
       </c>
       <c r="C28" t="n">
-        <v>1.744</v>
+        <v>1.742</v>
       </c>
       <c r="D28" t="n">
-        <v>1.744</v>
+        <v>1.742</v>
       </c>
       <c r="E28" t="n">
-        <v>1.744</v>
+        <v>1.742</v>
       </c>
       <c r="F28" t="n">
         <v>288</v>
       </c>
       <c r="G28" t="n">
-        <v>1.731416666666667</v>
+        <v>1.731283333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="C29" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="D29" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E29" t="n">
-        <v>1.724</v>
+        <v>1.744</v>
       </c>
       <c r="F29" t="n">
-        <v>3329706</v>
+        <v>288</v>
       </c>
       <c r="G29" t="n">
-        <v>1.731933333333334</v>
+        <v>1.731416666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.724</v>
+        <v>1.743</v>
       </c>
       <c r="C30" t="n">
-        <v>1.724</v>
+        <v>1.743</v>
       </c>
       <c r="D30" t="n">
-        <v>1.724</v>
+        <v>1.743</v>
       </c>
       <c r="E30" t="n">
         <v>1.724</v>
       </c>
       <c r="F30" t="n">
-        <v>420232</v>
+        <v>3329706</v>
       </c>
       <c r="G30" t="n">
-        <v>1.732</v>
+        <v>1.731933333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.743</v>
+        <v>1.724</v>
       </c>
       <c r="C31" t="n">
-        <v>1.725</v>
+        <v>1.724</v>
       </c>
       <c r="D31" t="n">
-        <v>1.743</v>
+        <v>1.724</v>
       </c>
       <c r="E31" t="n">
-        <v>1.725</v>
+        <v>1.724</v>
       </c>
       <c r="F31" t="n">
-        <v>1539253</v>
+        <v>420232</v>
       </c>
       <c r="G31" t="n">
-        <v>1.732483333333334</v>
+        <v>1.732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>1.743</v>
       </c>
       <c r="C32" t="n">
-        <v>1.724</v>
+        <v>1.725</v>
       </c>
       <c r="D32" t="n">
         <v>1.743</v>
       </c>
       <c r="E32" t="n">
-        <v>1.724</v>
+        <v>1.725</v>
       </c>
       <c r="F32" t="n">
-        <v>2949626</v>
+        <v>1539253</v>
       </c>
       <c r="G32" t="n">
-        <v>1.73295</v>
+        <v>1.732483333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>1.743</v>
       </c>
       <c r="C33" t="n">
-        <v>1.743</v>
+        <v>1.724</v>
       </c>
       <c r="D33" t="n">
         <v>1.743</v>
       </c>
       <c r="E33" t="n">
-        <v>1.725</v>
+        <v>1.724</v>
       </c>
       <c r="F33" t="n">
-        <v>3051625</v>
+        <v>2949626</v>
       </c>
       <c r="G33" t="n">
-        <v>1.73335</v>
+        <v>1.73295</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.725</v>
+        <v>1.743</v>
       </c>
       <c r="C34" t="n">
-        <v>1.725</v>
+        <v>1.743</v>
       </c>
       <c r="D34" t="n">
-        <v>1.725</v>
+        <v>1.743</v>
       </c>
       <c r="E34" t="n">
         <v>1.725</v>
       </c>
       <c r="F34" t="n">
-        <v>474024</v>
+        <v>3051625</v>
       </c>
       <c r="G34" t="n">
-        <v>1.73345</v>
+        <v>1.73335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.743</v>
+        <v>1.725</v>
       </c>
       <c r="C35" t="n">
         <v>1.725</v>
       </c>
       <c r="D35" t="n">
-        <v>1.743</v>
+        <v>1.725</v>
       </c>
       <c r="E35" t="n">
         <v>1.725</v>
       </c>
       <c r="F35" t="n">
-        <v>1445357.8316</v>
+        <v>474024</v>
       </c>
       <c r="G35" t="n">
-        <v>1.733883333333334</v>
+        <v>1.73345</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1.725</v>
       </c>
       <c r="F36" t="n">
-        <v>2193771</v>
+        <v>1445357.8316</v>
       </c>
       <c r="G36" t="n">
-        <v>1.734316666666667</v>
+        <v>1.733883333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.726</v>
+        <v>1.743</v>
       </c>
       <c r="C37" t="n">
-        <v>1.726</v>
+        <v>1.725</v>
       </c>
       <c r="D37" t="n">
-        <v>1.726</v>
+        <v>1.743</v>
       </c>
       <c r="E37" t="n">
-        <v>1.726</v>
+        <v>1.725</v>
       </c>
       <c r="F37" t="n">
-        <v>174322.788</v>
+        <v>2193771</v>
       </c>
       <c r="G37" t="n">
-        <v>1.734433333333334</v>
+        <v>1.734316666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.743</v>
+        <v>1.726</v>
       </c>
       <c r="C38" t="n">
-        <v>1.743</v>
+        <v>1.726</v>
       </c>
       <c r="D38" t="n">
-        <v>1.743</v>
+        <v>1.726</v>
       </c>
       <c r="E38" t="n">
-        <v>1.727</v>
+        <v>1.726</v>
       </c>
       <c r="F38" t="n">
-        <v>1014540</v>
+        <v>174322.788</v>
       </c>
       <c r="G38" t="n">
-        <v>1.734866666666667</v>
+        <v>1.734433333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.727</v>
+        <v>1.743</v>
       </c>
       <c r="C39" t="n">
-        <v>1.727</v>
+        <v>1.743</v>
       </c>
       <c r="D39" t="n">
         <v>1.743</v>
@@ -1740,10 +1740,10 @@
         <v>1.727</v>
       </c>
       <c r="F39" t="n">
-        <v>2658008</v>
+        <v>1014540</v>
       </c>
       <c r="G39" t="n">
-        <v>1.735033333333334</v>
+        <v>1.734866666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.743</v>
+        <v>1.727</v>
       </c>
       <c r="C40" t="n">
-        <v>1.743</v>
+        <v>1.727</v>
       </c>
       <c r="D40" t="n">
         <v>1.743</v>
       </c>
       <c r="E40" t="n">
-        <v>1.728</v>
+        <v>1.727</v>
       </c>
       <c r="F40" t="n">
-        <v>2547953.8231</v>
+        <v>2658008</v>
       </c>
       <c r="G40" t="n">
-        <v>1.735416666666667</v>
+        <v>1.735033333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,10 +1798,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.728</v>
+        <v>1.743</v>
       </c>
       <c r="C41" t="n">
-        <v>1.728</v>
+        <v>1.743</v>
       </c>
       <c r="D41" t="n">
         <v>1.743</v>
@@ -1810,10 +1810,10 @@
         <v>1.728</v>
       </c>
       <c r="F41" t="n">
-        <v>1994422</v>
+        <v>2547953.8231</v>
       </c>
       <c r="G41" t="n">
-        <v>1.73535</v>
+        <v>1.735416666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.744</v>
+        <v>1.728</v>
       </c>
       <c r="C42" t="n">
-        <v>1.744</v>
+        <v>1.728</v>
       </c>
       <c r="D42" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="E42" t="n">
-        <v>1.744</v>
+        <v>1.728</v>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>1994422</v>
       </c>
       <c r="G42" t="n">
-        <v>1.73555</v>
+        <v>1.73535</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="C43" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="D43" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E43" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="F43" t="n">
-        <v>1354992</v>
+        <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>1.7355</v>
+        <v>1.73555</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>1.743</v>
       </c>
       <c r="C44" t="n">
-        <v>1.728</v>
+        <v>1.729</v>
       </c>
       <c r="D44" t="n">
         <v>1.743</v>
       </c>
       <c r="E44" t="n">
-        <v>1.728</v>
+        <v>1.729</v>
       </c>
       <c r="F44" t="n">
-        <v>2340460</v>
+        <v>1354992</v>
       </c>
       <c r="G44" t="n">
-        <v>1.735683333333333</v>
+        <v>1.7355</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="C45" t="n">
-        <v>1.744</v>
+        <v>1.728</v>
       </c>
       <c r="D45" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="E45" t="n">
-        <v>1.744</v>
+        <v>1.728</v>
       </c>
       <c r="F45" t="n">
-        <v>200462.2102</v>
+        <v>2340460</v>
       </c>
       <c r="G45" t="n">
-        <v>1.736183333333333</v>
+        <v>1.735683333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="C46" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="D46" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E46" t="n">
-        <v>1.728</v>
+        <v>1.744</v>
       </c>
       <c r="F46" t="n">
-        <v>671426</v>
+        <v>200462.2102</v>
       </c>
       <c r="G46" t="n">
-        <v>1.736366666666667</v>
+        <v>1.736183333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>1.743</v>
       </c>
       <c r="C47" t="n">
-        <v>1.727</v>
+        <v>1.743</v>
       </c>
       <c r="D47" t="n">
         <v>1.743</v>
       </c>
       <c r="E47" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="F47" t="n">
-        <v>1761287.7656</v>
+        <v>671426</v>
       </c>
       <c r="G47" t="n">
-        <v>1.736316666666667</v>
+        <v>1.736366666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>1.727</v>
       </c>
       <c r="F48" t="n">
-        <v>1396503</v>
+        <v>1761287.7656</v>
       </c>
       <c r="G48" t="n">
-        <v>1.73625</v>
+        <v>1.736316666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.726</v>
+        <v>1.743</v>
       </c>
       <c r="C49" t="n">
-        <v>1.726</v>
+        <v>1.727</v>
       </c>
       <c r="D49" t="n">
-        <v>1.726</v>
+        <v>1.743</v>
       </c>
       <c r="E49" t="n">
-        <v>1.726</v>
+        <v>1.727</v>
       </c>
       <c r="F49" t="n">
-        <v>18118.8036</v>
+        <v>1396503</v>
       </c>
       <c r="G49" t="n">
-        <v>1.736466666666667</v>
+        <v>1.73625</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.734</v>
+        <v>1.726</v>
       </c>
       <c r="C50" t="n">
-        <v>1.734</v>
+        <v>1.726</v>
       </c>
       <c r="D50" t="n">
-        <v>1.734</v>
+        <v>1.726</v>
       </c>
       <c r="E50" t="n">
-        <v>1.734</v>
+        <v>1.726</v>
       </c>
       <c r="F50" t="n">
-        <v>226673.6525</v>
+        <v>18118.8036</v>
       </c>
       <c r="G50" t="n">
-        <v>1.7365</v>
+        <v>1.736466666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>1.734</v>
       </c>
       <c r="F51" t="n">
-        <v>62084.8717</v>
+        <v>226673.6525</v>
       </c>
       <c r="G51" t="n">
-        <v>1.736533333333333</v>
+        <v>1.7365</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>1.734</v>
       </c>
       <c r="F52" t="n">
-        <v>27641.6489</v>
+        <v>62084.8717</v>
       </c>
       <c r="G52" t="n">
-        <v>1.7366</v>
+        <v>1.736533333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.727</v>
+        <v>1.734</v>
       </c>
       <c r="C53" t="n">
-        <v>1.727</v>
+        <v>1.734</v>
       </c>
       <c r="D53" t="n">
-        <v>1.727</v>
+        <v>1.734</v>
       </c>
       <c r="E53" t="n">
-        <v>1.727</v>
+        <v>1.734</v>
       </c>
       <c r="F53" t="n">
-        <v>233919.3439</v>
+        <v>27641.6489</v>
       </c>
       <c r="G53" t="n">
-        <v>1.736833333333333</v>
+        <v>1.7366</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>1.727</v>
       </c>
       <c r="F54" t="n">
-        <v>117303.9106</v>
+        <v>233919.3439</v>
       </c>
       <c r="G54" t="n">
-        <v>1.73705</v>
+        <v>1.736833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>1.727</v>
       </c>
       <c r="C55" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="D55" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="E55" t="n">
         <v>1.727</v>
       </c>
       <c r="F55" t="n">
-        <v>117400</v>
+        <v>117303.9106</v>
       </c>
       <c r="G55" t="n">
-        <v>1.737366666666667</v>
+        <v>1.73705</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="C56" t="n">
         <v>1.733</v>
@@ -2332,13 +2332,13 @@
         <v>1.733</v>
       </c>
       <c r="E56" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="F56" t="n">
-        <v>1015.3554</v>
+        <v>117400</v>
       </c>
       <c r="G56" t="n">
-        <v>1.737416666666667</v>
+        <v>1.737366666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>1.733</v>
       </c>
       <c r="C57" t="n">
-        <v>1.728</v>
+        <v>1.733</v>
       </c>
       <c r="D57" t="n">
-        <v>1.744</v>
+        <v>1.733</v>
       </c>
       <c r="E57" t="n">
-        <v>1.728</v>
+        <v>1.733</v>
       </c>
       <c r="F57" t="n">
-        <v>2061731.1576</v>
+        <v>1015.3554</v>
       </c>
       <c r="G57" t="n">
-        <v>1.73735</v>
+        <v>1.737416666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.743</v>
+        <v>1.733</v>
       </c>
       <c r="C58" t="n">
         <v>1.728</v>
       </c>
       <c r="D58" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E58" t="n">
         <v>1.728</v>
       </c>
       <c r="F58" t="n">
-        <v>1416835</v>
+        <v>2061731.1576</v>
       </c>
       <c r="G58" t="n">
-        <v>1.737566666666667</v>
+        <v>1.73735</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.727</v>
+        <v>1.743</v>
       </c>
       <c r="C59" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="D59" t="n">
-        <v>1.727</v>
+        <v>1.743</v>
       </c>
       <c r="E59" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="F59" t="n">
-        <v>200462.2102</v>
+        <v>1416835</v>
       </c>
       <c r="G59" t="n">
-        <v>1.737466666666667</v>
+        <v>1.737566666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.744</v>
+        <v>1.727</v>
       </c>
       <c r="C60" t="n">
-        <v>1.744</v>
+        <v>1.727</v>
       </c>
       <c r="D60" t="n">
-        <v>1.744</v>
+        <v>1.727</v>
       </c>
       <c r="E60" t="n">
-        <v>1.744</v>
+        <v>1.727</v>
       </c>
       <c r="F60" t="n">
-        <v>287</v>
+        <v>200462.2102</v>
       </c>
       <c r="G60" t="n">
-        <v>1.73735</v>
+        <v>1.737466666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="C61" t="n">
-        <v>1.728</v>
+        <v>1.744</v>
       </c>
       <c r="D61" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E61" t="n">
-        <v>1.728</v>
+        <v>1.744</v>
       </c>
       <c r="F61" t="n">
-        <v>2092396</v>
+        <v>287</v>
       </c>
       <c r="G61" t="n">
-        <v>1.736816666666666</v>
+        <v>1.73735</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>1.728</v>
       </c>
       <c r="F62" t="n">
-        <v>1505458</v>
+        <v>2092396</v>
       </c>
       <c r="G62" t="n">
-        <v>1.736633333333333</v>
+        <v>1.736816666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>1.743</v>
       </c>
       <c r="C63" t="n">
-        <v>1.743</v>
+        <v>1.728</v>
       </c>
       <c r="D63" t="n">
         <v>1.743</v>
@@ -2580,10 +2580,10 @@
         <v>1.728</v>
       </c>
       <c r="F63" t="n">
-        <v>3117365</v>
+        <v>1505458</v>
       </c>
       <c r="G63" t="n">
-        <v>1.736699999999999</v>
+        <v>1.736633333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.728</v>
+        <v>1.743</v>
       </c>
       <c r="C64" t="n">
-        <v>1.728</v>
+        <v>1.743</v>
       </c>
       <c r="D64" t="n">
         <v>1.743</v>
@@ -2615,10 +2615,10 @@
         <v>1.728</v>
       </c>
       <c r="F64" t="n">
-        <v>1364381</v>
+        <v>3117365</v>
       </c>
       <c r="G64" t="n">
-        <v>1.736333333333333</v>
+        <v>1.736699999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.743</v>
+        <v>1.728</v>
       </c>
       <c r="C65" t="n">
-        <v>1.743</v>
+        <v>1.728</v>
       </c>
       <c r="D65" t="n">
         <v>1.743</v>
       </c>
       <c r="E65" t="n">
-        <v>1.743</v>
+        <v>1.728</v>
       </c>
       <c r="F65" t="n">
-        <v>287</v>
+        <v>1364381</v>
       </c>
       <c r="G65" t="n">
-        <v>1.736216666666666</v>
+        <v>1.736333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>1.743</v>
       </c>
       <c r="E66" t="n">
-        <v>1.728</v>
+        <v>1.743</v>
       </c>
       <c r="F66" t="n">
-        <v>1268384</v>
+        <v>287</v>
       </c>
       <c r="G66" t="n">
-        <v>1.735783333333333</v>
+        <v>1.736216666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>1.743</v>
       </c>
       <c r="C67" t="n">
-        <v>1.728</v>
+        <v>1.743</v>
       </c>
       <c r="D67" t="n">
         <v>1.743</v>
@@ -2720,10 +2720,10 @@
         <v>1.728</v>
       </c>
       <c r="F67" t="n">
-        <v>2999002</v>
+        <v>1268384</v>
       </c>
       <c r="G67" t="n">
-        <v>1.735416666666666</v>
+        <v>1.735783333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>1.743</v>
       </c>
       <c r="C68" t="n">
-        <v>1.743</v>
+        <v>1.728</v>
       </c>
       <c r="D68" t="n">
         <v>1.743</v>
       </c>
       <c r="E68" t="n">
-        <v>1.729</v>
+        <v>1.728</v>
       </c>
       <c r="F68" t="n">
-        <v>908139</v>
+        <v>2999002</v>
       </c>
       <c r="G68" t="n">
-        <v>1.734983333333332</v>
+        <v>1.735416666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.729</v>
+        <v>1.743</v>
       </c>
       <c r="C69" t="n">
-        <v>1.729</v>
+        <v>1.743</v>
       </c>
       <c r="D69" t="n">
         <v>1.743</v>
@@ -2790,10 +2790,10 @@
         <v>1.729</v>
       </c>
       <c r="F69" t="n">
-        <v>2576497</v>
+        <v>908139</v>
       </c>
       <c r="G69" t="n">
-        <v>1.734616666666665</v>
+        <v>1.734983333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.743</v>
+        <v>1.729</v>
       </c>
       <c r="C70" t="n">
         <v>1.729</v>
@@ -2825,10 +2825,10 @@
         <v>1.729</v>
       </c>
       <c r="F70" t="n">
-        <v>3738129</v>
+        <v>2576497</v>
       </c>
       <c r="G70" t="n">
-        <v>1.734266666666666</v>
+        <v>1.734616666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>1.743</v>
       </c>
       <c r="C71" t="n">
-        <v>1.743</v>
+        <v>1.729</v>
       </c>
       <c r="D71" t="n">
         <v>1.743</v>
@@ -2860,10 +2860,10 @@
         <v>1.729</v>
       </c>
       <c r="F71" t="n">
-        <v>839650</v>
+        <v>3738129</v>
       </c>
       <c r="G71" t="n">
-        <v>1.733833333333332</v>
+        <v>1.734266666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>1.743</v>
       </c>
       <c r="C72" t="n">
-        <v>1.729</v>
+        <v>1.743</v>
       </c>
       <c r="D72" t="n">
         <v>1.743</v>
@@ -2895,10 +2895,10 @@
         <v>1.729</v>
       </c>
       <c r="F72" t="n">
-        <v>2846841</v>
+        <v>839650</v>
       </c>
       <c r="G72" t="n">
-        <v>1.733466666666665</v>
+        <v>1.733833333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="C73" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="D73" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="E73" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>2846841</v>
       </c>
       <c r="G73" t="n">
-        <v>1.733383333333332</v>
+        <v>1.733466666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>1.744</v>
       </c>
       <c r="C74" t="n">
-        <v>1.745</v>
+        <v>1.744</v>
       </c>
       <c r="D74" t="n">
-        <v>1.778</v>
+        <v>1.744</v>
       </c>
       <c r="E74" t="n">
         <v>1.744</v>
       </c>
       <c r="F74" t="n">
-        <v>2017719.8675</v>
+        <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>1.733683333333332</v>
+        <v>1.733383333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.778</v>
+        <v>1.744</v>
       </c>
       <c r="C75" t="n">
         <v>1.745</v>
@@ -2997,13 +2997,13 @@
         <v>1.778</v>
       </c>
       <c r="E75" t="n">
-        <v>1.745</v>
+        <v>1.744</v>
       </c>
       <c r="F75" t="n">
-        <v>2227691</v>
+        <v>2017719.8675</v>
       </c>
       <c r="G75" t="n">
-        <v>1.733449999999999</v>
+        <v>1.733683333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="C76" t="n">
-        <v>1.761</v>
+        <v>1.745</v>
       </c>
       <c r="D76" t="n">
         <v>1.778</v>
       </c>
       <c r="E76" t="n">
-        <v>1.751</v>
+        <v>1.745</v>
       </c>
       <c r="F76" t="n">
-        <v>1608883</v>
+        <v>2227691</v>
       </c>
       <c r="G76" t="n">
-        <v>1.734116666666665</v>
+        <v>1.733449999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.778</v>
+        <v>1.776</v>
       </c>
       <c r="C77" t="n">
-        <v>1.743</v>
+        <v>1.761</v>
       </c>
       <c r="D77" t="n">
         <v>1.778</v>
       </c>
       <c r="E77" t="n">
-        <v>1.741</v>
+        <v>1.751</v>
       </c>
       <c r="F77" t="n">
-        <v>2194537</v>
+        <v>1608883</v>
       </c>
       <c r="G77" t="n">
-        <v>1.734216666666665</v>
+        <v>1.734116666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.74</v>
+        <v>1.778</v>
       </c>
       <c r="C78" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
       <c r="D78" t="n">
-        <v>1.74</v>
+        <v>1.778</v>
       </c>
       <c r="E78" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="F78" t="n">
-        <v>173000</v>
+        <v>2194537</v>
       </c>
       <c r="G78" t="n">
-        <v>1.734183333333332</v>
+        <v>1.734216666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.777</v>
+        <v>1.74</v>
       </c>
       <c r="C79" t="n">
-        <v>1.741</v>
+        <v>1.74</v>
       </c>
       <c r="D79" t="n">
-        <v>1.777</v>
+        <v>1.74</v>
       </c>
       <c r="E79" t="n">
-        <v>1.741</v>
+        <v>1.74</v>
       </c>
       <c r="F79" t="n">
-        <v>2714429.5828</v>
+        <v>173000</v>
       </c>
       <c r="G79" t="n">
-        <v>1.734149999999999</v>
+        <v>1.734183333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>1.777</v>
       </c>
       <c r="C80" t="n">
-        <v>1.751</v>
+        <v>1.741</v>
       </c>
       <c r="D80" t="n">
         <v>1.777</v>
@@ -3175,10 +3175,10 @@
         <v>1.741</v>
       </c>
       <c r="F80" t="n">
-        <v>1393409</v>
+        <v>2714429.5828</v>
       </c>
       <c r="G80" t="n">
-        <v>1.734449999999998</v>
+        <v>1.734149999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="C81" t="n">
-        <v>1.759</v>
+        <v>1.751</v>
       </c>
       <c r="D81" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="E81" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="F81" t="n">
-        <v>148508.385</v>
+        <v>1393409</v>
       </c>
       <c r="G81" t="n">
-        <v>1.734883333333332</v>
+        <v>1.734449999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.751</v>
+        <v>1.759</v>
       </c>
       <c r="C82" t="n">
-        <v>1.751</v>
+        <v>1.759</v>
       </c>
       <c r="D82" t="n">
-        <v>1.751</v>
+        <v>1.759</v>
       </c>
       <c r="E82" t="n">
-        <v>1.751</v>
+        <v>1.759</v>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>148508.385</v>
       </c>
       <c r="G82" t="n">
-        <v>1.735183333333332</v>
+        <v>1.734883333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="C83" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="D83" t="n">
-        <v>1.778</v>
+        <v>1.751</v>
       </c>
       <c r="E83" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="F83" t="n">
-        <v>2354540</v>
+        <v>5000</v>
       </c>
       <c r="G83" t="n">
-        <v>1.735816666666665</v>
+        <v>1.735183333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="C84" t="n">
         <v>1.761</v>
@@ -3315,10 +3315,10 @@
         <v>1.761</v>
       </c>
       <c r="F84" t="n">
-        <v>1366362</v>
+        <v>2354540</v>
       </c>
       <c r="G84" t="n">
-        <v>1.736449999999998</v>
+        <v>1.735816666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.77</v>
+        <v>1.778</v>
       </c>
       <c r="C85" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="D85" t="n">
-        <v>1.77</v>
+        <v>1.778</v>
       </c>
       <c r="E85" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>1366362</v>
       </c>
       <c r="G85" t="n">
-        <v>1.737233333333332</v>
+        <v>1.736449999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="C86" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="D86" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E86" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="F86" t="n">
-        <v>20128.6614</v>
+        <v>300</v>
       </c>
       <c r="G86" t="n">
-        <v>1.737649999999998</v>
+        <v>1.737233333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.768</v>
+        <v>1.76</v>
       </c>
       <c r="C87" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D87" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E87" t="n">
-        <v>1.768</v>
+        <v>1.76</v>
       </c>
       <c r="F87" t="n">
-        <v>58.5362</v>
+        <v>20128.6614</v>
       </c>
       <c r="G87" t="n">
-        <v>1.738083333333332</v>
+        <v>1.737649999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>1.768</v>
       </c>
       <c r="E88" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="F88" t="n">
-        <v>3030628</v>
+        <v>58.5362</v>
       </c>
       <c r="G88" t="n">
-        <v>1.738483333333332</v>
+        <v>1.738083333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="C89" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="D89" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="E89" t="n">
         <v>1.752</v>
       </c>
       <c r="F89" t="n">
-        <v>542446</v>
+        <v>3030628</v>
       </c>
       <c r="G89" t="n">
-        <v>1.738633333333332</v>
+        <v>1.738483333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="C90" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="D90" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="E90" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="F90" t="n">
-        <v>283</v>
+        <v>542446</v>
       </c>
       <c r="G90" t="n">
-        <v>1.739383333333332</v>
+        <v>1.738633333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C91" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D91" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E91" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="F91" t="n">
         <v>283</v>
       </c>
       <c r="G91" t="n">
-        <v>1.740099999999998</v>
+        <v>1.739383333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="C92" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="D92" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E92" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="F92" t="n">
-        <v>7615.9629</v>
+        <v>283</v>
       </c>
       <c r="G92" t="n">
-        <v>1.740849999999998</v>
+        <v>1.740099999999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C93" t="n">
-        <v>1.752</v>
+        <v>1.769</v>
       </c>
       <c r="D93" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E93" t="n">
-        <v>1.752</v>
+        <v>1.769</v>
       </c>
       <c r="F93" t="n">
-        <v>1479378</v>
+        <v>7615.9629</v>
       </c>
       <c r="G93" t="n">
-        <v>1.740999999999999</v>
+        <v>1.740849999999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3659,16 +3659,16 @@
         <v>1.752</v>
       </c>
       <c r="D94" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E94" t="n">
-        <v>1.75</v>
+        <v>1.752</v>
       </c>
       <c r="F94" t="n">
-        <v>4628776.9839</v>
+        <v>1479378</v>
       </c>
       <c r="G94" t="n">
-        <v>1.741449999999998</v>
+        <v>1.740999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>1.768</v>
       </c>
       <c r="C95" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="D95" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E95" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F95" t="n">
-        <v>780597</v>
+        <v>4628776.9839</v>
       </c>
       <c r="G95" t="n">
-        <v>1.741883333333332</v>
+        <v>1.741449999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="C96" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="D96" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E96" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>780597</v>
       </c>
       <c r="G96" t="n">
-        <v>1.742616666666666</v>
+        <v>1.741883333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C97" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="D97" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E97" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="F97" t="n">
-        <v>2358774</v>
+        <v>300</v>
       </c>
       <c r="G97" t="n">
-        <v>1.743033333333332</v>
+        <v>1.742616666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>1.751</v>
       </c>
       <c r="F98" t="n">
-        <v>1434175</v>
+        <v>2358774</v>
       </c>
       <c r="G98" t="n">
-        <v>1.743166666666666</v>
+        <v>1.743033333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3834,16 +3834,16 @@
         <v>1.751</v>
       </c>
       <c r="D99" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E99" t="n">
         <v>1.751</v>
       </c>
       <c r="F99" t="n">
-        <v>2429909.4832</v>
+        <v>1434175</v>
       </c>
       <c r="G99" t="n">
-        <v>1.743566666666666</v>
+        <v>1.743166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C100" t="n">
         <v>1.751</v>
       </c>
-      <c r="C100" t="n">
-        <v>1.768</v>
-      </c>
       <c r="D100" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E100" t="n">
         <v>1.751</v>
       </c>
       <c r="F100" t="n">
-        <v>512014</v>
+        <v>2429909.4832</v>
       </c>
       <c r="G100" t="n">
-        <v>1.743983333333333</v>
+        <v>1.743566666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>1.751</v>
       </c>
       <c r="C101" t="n">
-        <v>1.751</v>
+        <v>1.768</v>
       </c>
       <c r="D101" t="n">
         <v>1.768</v>
       </c>
       <c r="E101" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="F101" t="n">
-        <v>2447628.1624</v>
+        <v>512014</v>
       </c>
       <c r="G101" t="n">
-        <v>1.744366666666666</v>
+        <v>1.743983333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="C102" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="D102" t="n">
-        <v>1.75</v>
+        <v>1.768</v>
       </c>
       <c r="E102" t="n">
         <v>1.75</v>
       </c>
       <c r="F102" t="n">
-        <v>104667.9281</v>
+        <v>2447628.1624</v>
       </c>
       <c r="G102" t="n">
-        <v>1.744466666666666</v>
+        <v>1.744366666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.768</v>
+        <v>1.75</v>
       </c>
       <c r="C103" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="D103" t="n">
-        <v>1.768</v>
+        <v>1.75</v>
       </c>
       <c r="E103" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F103" t="n">
-        <v>2901380</v>
+        <v>104667.9281</v>
       </c>
       <c r="G103" t="n">
-        <v>1.744833333333333</v>
+        <v>1.744466666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>1.751</v>
       </c>
       <c r="F104" t="n">
-        <v>1525930</v>
+        <v>2901380</v>
       </c>
       <c r="G104" t="n">
-        <v>1.745216666666666</v>
+        <v>1.744833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="C105" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="D105" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E105" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="F105" t="n">
-        <v>283</v>
+        <v>1525930</v>
       </c>
       <c r="G105" t="n">
-        <v>1.745633333333333</v>
+        <v>1.745216666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>1.769</v>
       </c>
       <c r="F106" t="n">
-        <v>126307.1498</v>
+        <v>283</v>
       </c>
       <c r="G106" t="n">
-        <v>1.746066666666667</v>
+        <v>1.745633333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.77</v>
+        <v>1.769</v>
       </c>
       <c r="C107" t="n">
-        <v>1.778</v>
+        <v>1.769</v>
       </c>
       <c r="D107" t="n">
-        <v>1.778</v>
+        <v>1.769</v>
       </c>
       <c r="E107" t="n">
         <v>1.769</v>
       </c>
       <c r="F107" t="n">
-        <v>287642.1379</v>
+        <v>126307.1498</v>
       </c>
       <c r="G107" t="n">
-        <v>1.746916666666667</v>
+        <v>1.746066666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C108" t="n">
         <v>1.778</v>
       </c>
-      <c r="C108" t="n">
-        <v>1.779</v>
-      </c>
       <c r="D108" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="E108" t="n">
-        <v>1.751</v>
+        <v>1.769</v>
       </c>
       <c r="F108" t="n">
-        <v>985635</v>
+        <v>287642.1379</v>
       </c>
       <c r="G108" t="n">
-        <v>1.747783333333333</v>
+        <v>1.746916666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.761</v>
+        <v>1.778</v>
       </c>
       <c r="C109" t="n">
-        <v>1.761</v>
+        <v>1.779</v>
       </c>
       <c r="D109" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="E109" t="n">
-        <v>1.761</v>
+        <v>1.751</v>
       </c>
       <c r="F109" t="n">
-        <v>2636511</v>
+        <v>985635</v>
       </c>
       <c r="G109" t="n">
-        <v>1.748366666666666</v>
+        <v>1.747783333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="C110" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="D110" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E110" t="n">
-        <v>1.77</v>
+        <v>1.761</v>
       </c>
       <c r="F110" t="n">
-        <v>283</v>
+        <v>2636511</v>
       </c>
       <c r="G110" t="n">
-        <v>1.748966666666667</v>
+        <v>1.748366666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.765</v>
+        <v>1.77</v>
       </c>
       <c r="C111" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="D111" t="n">
-        <v>1.765</v>
+        <v>1.77</v>
       </c>
       <c r="E111" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="F111" t="n">
-        <v>5404.0483</v>
+        <v>283</v>
       </c>
       <c r="G111" t="n">
-        <v>1.74925</v>
+        <v>1.748966666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.76</v>
+        <v>1.765</v>
       </c>
       <c r="C112" t="n">
-        <v>1.76</v>
+        <v>1.751</v>
       </c>
       <c r="D112" t="n">
-        <v>1.76</v>
+        <v>1.765</v>
       </c>
       <c r="E112" t="n">
-        <v>1.76</v>
+        <v>1.751</v>
       </c>
       <c r="F112" t="n">
-        <v>5685.0483</v>
+        <v>5404.0483</v>
       </c>
       <c r="G112" t="n">
-        <v>1.749683333333333</v>
+        <v>1.74925</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.751</v>
+        <v>1.76</v>
       </c>
       <c r="C113" t="n">
-        <v>1.751</v>
+        <v>1.76</v>
       </c>
       <c r="D113" t="n">
-        <v>1.751</v>
+        <v>1.76</v>
       </c>
       <c r="E113" t="n">
-        <v>1.751</v>
+        <v>1.76</v>
       </c>
       <c r="F113" t="n">
-        <v>4999.0842</v>
+        <v>5685.0483</v>
       </c>
       <c r="G113" t="n">
-        <v>1.750083333333333</v>
+        <v>1.749683333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="C114" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="D114" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="E114" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="F114" t="n">
-        <v>204885.779</v>
+        <v>4999.0842</v>
       </c>
       <c r="G114" t="n">
-        <v>1.750466666666667</v>
+        <v>1.750083333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="C115" t="n">
-        <v>1.756</v>
+        <v>1.75</v>
       </c>
       <c r="D115" t="n">
-        <v>1.756</v>
+        <v>1.75</v>
       </c>
       <c r="E115" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F115" t="n">
-        <v>1511.4345</v>
+        <v>204885.779</v>
       </c>
       <c r="G115" t="n">
-        <v>1.75085</v>
+        <v>1.750466666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>1.751</v>
       </c>
       <c r="C116" t="n">
-        <v>1.749</v>
+        <v>1.756</v>
       </c>
       <c r="D116" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="E116" t="n">
         <v>1.751</v>
       </c>
-      <c r="E116" t="n">
-        <v>1.749</v>
-      </c>
       <c r="F116" t="n">
-        <v>1028697.2386</v>
+        <v>1511.4345</v>
       </c>
       <c r="G116" t="n">
-        <v>1.751116666666667</v>
+        <v>1.75085</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.756</v>
+        <v>1.751</v>
       </c>
       <c r="C117" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="D117" t="n">
-        <v>1.756</v>
+        <v>1.751</v>
       </c>
       <c r="E117" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="F117" t="n">
-        <v>15260.9699</v>
+        <v>1028697.2386</v>
       </c>
       <c r="G117" t="n">
-        <v>1.751583333333333</v>
+        <v>1.751116666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.759</v>
+        <v>1.756</v>
       </c>
       <c r="C118" t="n">
-        <v>1.759</v>
+        <v>1.756</v>
       </c>
       <c r="D118" t="n">
-        <v>1.759</v>
+        <v>1.756</v>
       </c>
       <c r="E118" t="n">
-        <v>1.759</v>
+        <v>1.756</v>
       </c>
       <c r="F118" t="n">
-        <v>14994.1065</v>
+        <v>15260.9699</v>
       </c>
       <c r="G118" t="n">
-        <v>1.7521</v>
+        <v>1.751583333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="C119" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="D119" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="E119" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="F119" t="n">
-        <v>1551.1124</v>
+        <v>14994.1065</v>
       </c>
       <c r="G119" t="n">
-        <v>1.752483333333333</v>
+        <v>1.7521</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>1.75</v>
       </c>
       <c r="F120" t="n">
-        <v>3931.0843</v>
+        <v>1551.1124</v>
       </c>
       <c r="G120" t="n">
-        <v>1.752583333333333</v>
+        <v>1.752483333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.749</v>
+        <v>1.75</v>
       </c>
       <c r="C121" t="n">
-        <v>1.749</v>
+        <v>1.75</v>
       </c>
       <c r="D121" t="n">
-        <v>1.749</v>
+        <v>1.75</v>
       </c>
       <c r="E121" t="n">
-        <v>1.749</v>
+        <v>1.75</v>
       </c>
       <c r="F121" t="n">
-        <v>43625.0197</v>
+        <v>3931.0843</v>
       </c>
       <c r="G121" t="n">
-        <v>1.752933333333333</v>
+        <v>1.752583333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="C122" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="D122" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="E122" t="n">
-        <v>1.756</v>
+        <v>1.749</v>
       </c>
       <c r="F122" t="n">
-        <v>1172.178</v>
+        <v>43625.0197</v>
       </c>
       <c r="G122" t="n">
-        <v>1.7534</v>
+        <v>1.752933333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>1.756</v>
       </c>
       <c r="F123" t="n">
-        <v>17084.2825</v>
+        <v>1172.178</v>
       </c>
       <c r="G123" t="n">
-        <v>1.753616666666667</v>
+        <v>1.7534</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,31 +4703,35 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.754</v>
+        <v>1.756</v>
       </c>
       <c r="C124" t="n">
-        <v>1.754</v>
+        <v>1.756</v>
       </c>
       <c r="D124" t="n">
-        <v>1.754</v>
+        <v>1.756</v>
       </c>
       <c r="E124" t="n">
-        <v>1.754</v>
+        <v>1.756</v>
       </c>
       <c r="F124" t="n">
-        <v>456540.7372</v>
+        <v>17084.2825</v>
       </c>
       <c r="G124" t="n">
-        <v>1.75405</v>
+        <v>1.753616666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.756</v>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4738,22 +4742,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="C125" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="D125" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="E125" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="F125" t="n">
-        <v>75717.277</v>
+        <v>456540.7372</v>
       </c>
       <c r="G125" t="n">
-        <v>1.75425</v>
+        <v>1.75405</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4783,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.759</v>
+        <v>1.755</v>
       </c>
       <c r="C126" t="n">
-        <v>1.759</v>
+        <v>1.755</v>
       </c>
       <c r="D126" t="n">
-        <v>1.759</v>
+        <v>1.755</v>
       </c>
       <c r="E126" t="n">
-        <v>1.759</v>
+        <v>1.755</v>
       </c>
       <c r="F126" t="n">
-        <v>9391.3529</v>
+        <v>75717.277</v>
       </c>
       <c r="G126" t="n">
-        <v>1.754516666666667</v>
+        <v>1.75425</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +4827,19 @@
         <v>1.759</v>
       </c>
       <c r="C127" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="D127" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="E127" t="n">
         <v>1.759</v>
       </c>
       <c r="F127" t="n">
-        <v>8817.609200000001</v>
+        <v>9391.3529</v>
       </c>
       <c r="G127" t="n">
-        <v>1.755050000000001</v>
+        <v>1.754516666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4852,13 +4868,13 @@
         <v>1.76</v>
       </c>
       <c r="E128" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="F128" t="n">
-        <v>457160.0255</v>
+        <v>8817.609200000001</v>
       </c>
       <c r="G128" t="n">
-        <v>1.755333333333334</v>
+        <v>1.755050000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4894,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="C129" t="n">
         <v>1.76</v>
@@ -4887,13 +4903,13 @@
         <v>1.76</v>
       </c>
       <c r="E129" t="n">
-        <v>1.76</v>
+        <v>1.755</v>
       </c>
       <c r="F129" t="n">
-        <v>285</v>
+        <v>457160.0255</v>
       </c>
       <c r="G129" t="n">
-        <v>1.755850000000001</v>
+        <v>1.755333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4941,10 @@
         <v>1.76</v>
       </c>
       <c r="F130" t="n">
-        <v>8284.542799999999</v>
+        <v>285</v>
       </c>
       <c r="G130" t="n">
-        <v>1.756366666666668</v>
+        <v>1.755850000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.761</v>
+        <v>1.76</v>
       </c>
       <c r="C131" t="n">
-        <v>1.761</v>
+        <v>1.76</v>
       </c>
       <c r="D131" t="n">
-        <v>1.761</v>
+        <v>1.76</v>
       </c>
       <c r="E131" t="n">
-        <v>1.761</v>
+        <v>1.76</v>
       </c>
       <c r="F131" t="n">
-        <v>284</v>
+        <v>8284.542799999999</v>
       </c>
       <c r="G131" t="n">
-        <v>1.756666666666668</v>
+        <v>1.756366666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +5011,10 @@
         <v>1.761</v>
       </c>
       <c r="F132" t="n">
-        <v>32089.9481</v>
+        <v>284</v>
       </c>
       <c r="G132" t="n">
-        <v>1.757200000000001</v>
+        <v>1.756666666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.767</v>
+        <v>1.761</v>
       </c>
       <c r="C133" t="n">
-        <v>1.768</v>
+        <v>1.761</v>
       </c>
       <c r="D133" t="n">
-        <v>1.768</v>
+        <v>1.761</v>
       </c>
       <c r="E133" t="n">
-        <v>1.767</v>
+        <v>1.761</v>
       </c>
       <c r="F133" t="n">
-        <v>31562.7272</v>
+        <v>32089.9481</v>
       </c>
       <c r="G133" t="n">
-        <v>1.757600000000001</v>
+        <v>1.757200000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C134" t="n">
         <v>1.768</v>
       </c>
-      <c r="C134" t="n">
-        <v>1.778</v>
-      </c>
       <c r="D134" t="n">
-        <v>1.778</v>
+        <v>1.768</v>
       </c>
       <c r="E134" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="F134" t="n">
-        <v>534243.2271</v>
+        <v>31562.7272</v>
       </c>
       <c r="G134" t="n">
-        <v>1.758150000000001</v>
+        <v>1.757600000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="C135" t="n">
-        <v>1.784</v>
+        <v>1.778</v>
       </c>
       <c r="D135" t="n">
-        <v>1.784</v>
+        <v>1.778</v>
       </c>
       <c r="E135" t="n">
-        <v>1.78</v>
+        <v>1.768</v>
       </c>
       <c r="F135" t="n">
-        <v>129282.8748</v>
+        <v>534243.2271</v>
       </c>
       <c r="G135" t="n">
-        <v>1.758800000000001</v>
+        <v>1.758150000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C136" t="n">
         <v>1.784</v>
       </c>
-      <c r="C136" t="n">
-        <v>1.787</v>
-      </c>
       <c r="D136" t="n">
-        <v>1.787</v>
+        <v>1.784</v>
       </c>
       <c r="E136" t="n">
-        <v>1.784</v>
+        <v>1.78</v>
       </c>
       <c r="F136" t="n">
-        <v>151210.364</v>
+        <v>129282.8748</v>
       </c>
       <c r="G136" t="n">
-        <v>1.759233333333335</v>
+        <v>1.758800000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C137" t="n">
         <v>1.787</v>
       </c>
-      <c r="C137" t="n">
-        <v>1.788</v>
-      </c>
       <c r="D137" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="E137" t="n">
-        <v>1.787</v>
+        <v>1.784</v>
       </c>
       <c r="F137" t="n">
-        <v>77005.1632</v>
+        <v>151210.364</v>
       </c>
       <c r="G137" t="n">
-        <v>1.759983333333335</v>
+        <v>1.759233333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="C138" t="n">
         <v>1.788</v>
       </c>
-      <c r="C138" t="n">
-        <v>1.79</v>
-      </c>
       <c r="D138" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="E138" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="F138" t="n">
-        <v>194259.7698287073</v>
+        <v>77005.1632</v>
       </c>
       <c r="G138" t="n">
-        <v>1.760816666666668</v>
+        <v>1.759983333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.793</v>
+        <v>1.788</v>
       </c>
       <c r="C139" t="n">
-        <v>1.799</v>
+        <v>1.79</v>
       </c>
       <c r="D139" t="n">
-        <v>1.799</v>
+        <v>1.79</v>
       </c>
       <c r="E139" t="n">
-        <v>1.793</v>
+        <v>1.788</v>
       </c>
       <c r="F139" t="n">
-        <v>474905.8127</v>
+        <v>194259.7698287073</v>
       </c>
       <c r="G139" t="n">
-        <v>1.761783333333335</v>
+        <v>1.760816666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.787</v>
+        <v>1.793</v>
       </c>
       <c r="C140" t="n">
         <v>1.799</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="E140" t="n">
-        <v>1.787</v>
+        <v>1.793</v>
       </c>
       <c r="F140" t="n">
-        <v>395665.4014</v>
+        <v>474905.8127</v>
       </c>
       <c r="G140" t="n">
-        <v>1.762583333333335</v>
+        <v>1.761783333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.798</v>
+        <v>1.787</v>
       </c>
       <c r="C141" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="D141" t="n">
-        <v>1.798</v>
+        <v>1.8</v>
       </c>
       <c r="E141" t="n">
-        <v>1.798</v>
+        <v>1.787</v>
       </c>
       <c r="F141" t="n">
-        <v>200000</v>
+        <v>395665.4014</v>
       </c>
       <c r="G141" t="n">
-        <v>1.763233333333335</v>
+        <v>1.762583333333335</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="C142" t="n">
-        <v>1.8</v>
+        <v>1.798</v>
       </c>
       <c r="D142" t="n">
-        <v>1.8</v>
+        <v>1.798</v>
       </c>
       <c r="E142" t="n">
-        <v>1.79</v>
+        <v>1.798</v>
       </c>
       <c r="F142" t="n">
-        <v>398823.7466</v>
+        <v>200000</v>
       </c>
       <c r="G142" t="n">
-        <v>1.764050000000001</v>
+        <v>1.763233333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.799</v>
+        <v>1.797</v>
       </c>
       <c r="C143" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="D143" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="E143" t="n">
-        <v>1.799</v>
+        <v>1.79</v>
       </c>
       <c r="F143" t="n">
-        <v>100000</v>
+        <v>398823.7466</v>
       </c>
       <c r="G143" t="n">
-        <v>1.764683333333335</v>
+        <v>1.764050000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.794</v>
+        <v>1.799</v>
       </c>
       <c r="C144" t="n">
-        <v>1.793</v>
+        <v>1.799</v>
       </c>
       <c r="D144" t="n">
-        <v>1.794</v>
+        <v>1.799</v>
       </c>
       <c r="E144" t="n">
-        <v>1.793</v>
+        <v>1.799</v>
       </c>
       <c r="F144" t="n">
-        <v>234972.5649</v>
+        <v>100000</v>
       </c>
       <c r="G144" t="n">
-        <v>1.765216666666668</v>
+        <v>1.764683333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.792</v>
+        <v>1.794</v>
       </c>
       <c r="C145" t="n">
-        <v>1.799</v>
+        <v>1.793</v>
       </c>
       <c r="D145" t="n">
-        <v>1.799</v>
+        <v>1.794</v>
       </c>
       <c r="E145" t="n">
-        <v>1.776</v>
+        <v>1.793</v>
       </c>
       <c r="F145" t="n">
-        <v>2316106</v>
+        <v>234972.5649</v>
       </c>
       <c r="G145" t="n">
-        <v>1.765700000000002</v>
+        <v>1.765216666666668</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,28 +5489,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="C146" t="n">
         <v>1.799</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.778</v>
       </c>
       <c r="D146" t="n">
         <v>1.799</v>
       </c>
       <c r="E146" t="n">
-        <v>1.778</v>
+        <v>1.776</v>
       </c>
       <c r="F146" t="n">
-        <v>1291420</v>
+        <v>2316106</v>
       </c>
       <c r="G146" t="n">
-        <v>1.765850000000002</v>
+        <v>1.765700000000002</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5508,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="C147" t="n">
-        <v>1.797</v>
+        <v>1.778</v>
       </c>
       <c r="D147" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="E147" t="n">
-        <v>1.797</v>
+        <v>1.778</v>
       </c>
       <c r="F147" t="n">
-        <v>558</v>
+        <v>1291420</v>
       </c>
       <c r="G147" t="n">
-        <v>1.766333333333335</v>
+        <v>1.765850000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.795</v>
+        <v>1.798</v>
       </c>
       <c r="C148" t="n">
-        <v>1.795</v>
+        <v>1.797</v>
       </c>
       <c r="D148" t="n">
-        <v>1.795</v>
+        <v>1.798</v>
       </c>
       <c r="E148" t="n">
-        <v>1.795</v>
+        <v>1.797</v>
       </c>
       <c r="F148" t="n">
-        <v>325.352</v>
+        <v>558</v>
       </c>
       <c r="G148" t="n">
-        <v>1.766783333333335</v>
+        <v>1.766333333333335</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5606,10 @@
         <v>1.795</v>
       </c>
       <c r="F149" t="n">
-        <v>100687.2308</v>
+        <v>325.352</v>
       </c>
       <c r="G149" t="n">
-        <v>1.767500000000002</v>
+        <v>1.766783333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5632,19 @@
         <v>1.795</v>
       </c>
       <c r="C150" t="n">
-        <v>1.8</v>
+        <v>1.795</v>
       </c>
       <c r="D150" t="n">
-        <v>1.8</v>
+        <v>1.795</v>
       </c>
       <c r="E150" t="n">
         <v>1.795</v>
       </c>
       <c r="F150" t="n">
-        <v>850291.2662</v>
+        <v>100687.2308</v>
       </c>
       <c r="G150" t="n">
-        <v>1.768016666666669</v>
+        <v>1.767500000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.801</v>
+        <v>1.795</v>
       </c>
       <c r="C151" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="D151" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="E151" t="n">
-        <v>1.781</v>
+        <v>1.795</v>
       </c>
       <c r="F151" t="n">
-        <v>849605</v>
+        <v>850291.2662</v>
       </c>
       <c r="G151" t="n">
-        <v>1.768566666666669</v>
+        <v>1.768016666666669</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5686,7 +5702,7 @@
         <v>1.801</v>
       </c>
       <c r="C152" t="n">
-        <v>1.782</v>
+        <v>1.801</v>
       </c>
       <c r="D152" t="n">
         <v>1.801</v>
@@ -5695,10 +5711,10 @@
         <v>1.781</v>
       </c>
       <c r="F152" t="n">
-        <v>2807343.1549</v>
+        <v>849605</v>
       </c>
       <c r="G152" t="n">
-        <v>1.768783333333335</v>
+        <v>1.768566666666669</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="C153" t="n">
-        <v>1.8</v>
+        <v>1.782</v>
       </c>
       <c r="D153" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="E153" t="n">
-        <v>1.8</v>
+        <v>1.781</v>
       </c>
       <c r="F153" t="n">
-        <v>331.1616</v>
+        <v>2807343.1549</v>
       </c>
       <c r="G153" t="n">
-        <v>1.769583333333335</v>
+        <v>1.768783333333335</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="C154" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="D154" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="E154" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="F154" t="n">
-        <v>100000</v>
+        <v>331.1616</v>
       </c>
       <c r="G154" t="n">
-        <v>1.770233333333335</v>
+        <v>1.769583333333335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.795</v>
+        <v>1.791</v>
       </c>
       <c r="C155" t="n">
-        <v>1.799</v>
+        <v>1.791</v>
       </c>
       <c r="D155" t="n">
-        <v>1.799</v>
+        <v>1.791</v>
       </c>
       <c r="E155" t="n">
-        <v>1.795</v>
+        <v>1.791</v>
       </c>
       <c r="F155" t="n">
-        <v>60107.25879199555</v>
+        <v>100000</v>
       </c>
       <c r="G155" t="n">
-        <v>1.771033333333335</v>
+        <v>1.770233333333335</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,7 +5839,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.799</v>
+        <v>1.795</v>
       </c>
       <c r="C156" t="n">
         <v>1.799</v>
@@ -5832,13 +5848,13 @@
         <v>1.799</v>
       </c>
       <c r="E156" t="n">
-        <v>1.799</v>
+        <v>1.795</v>
       </c>
       <c r="F156" t="n">
-        <v>366475.7616</v>
+        <v>60107.25879199555</v>
       </c>
       <c r="G156" t="n">
-        <v>1.771533333333335</v>
+        <v>1.771033333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5886,10 @@
         <v>1.799</v>
       </c>
       <c r="F157" t="n">
-        <v>43754.57740800445</v>
+        <v>366475.7616</v>
       </c>
       <c r="G157" t="n">
-        <v>1.772333333333335</v>
+        <v>1.771533333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5921,10 @@
         <v>1.799</v>
       </c>
       <c r="F158" t="n">
-        <v>836860.1480919955</v>
+        <v>43754.57740800445</v>
       </c>
       <c r="G158" t="n">
-        <v>1.773133333333335</v>
+        <v>1.772333333333335</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="C159" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="D159" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="E159" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="F159" t="n">
-        <v>499102.4632</v>
+        <v>836860.1480919955</v>
       </c>
       <c r="G159" t="n">
-        <v>1.773950000000002</v>
+        <v>1.773133333333335</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="C160" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="D160" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="E160" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="F160" t="n">
-        <v>278</v>
+        <v>499102.4632</v>
       </c>
       <c r="G160" t="n">
-        <v>1.774500000000002</v>
+        <v>1.773950000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6017,19 @@
         <v>1.801</v>
       </c>
       <c r="C161" t="n">
-        <v>1.802</v>
+        <v>1.801</v>
       </c>
       <c r="D161" t="n">
-        <v>1.802</v>
+        <v>1.801</v>
       </c>
       <c r="E161" t="n">
         <v>1.801</v>
       </c>
       <c r="F161" t="n">
-        <v>110056.6219</v>
+        <v>278</v>
       </c>
       <c r="G161" t="n">
-        <v>1.775350000000002</v>
+        <v>1.774500000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,10 +6049,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="C162" t="n">
         <v>1.802</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.801</v>
       </c>
       <c r="D162" t="n">
         <v>1.802</v>
@@ -6045,10 +6061,10 @@
         <v>1.801</v>
       </c>
       <c r="F162" t="n">
-        <v>464518.7351</v>
+        <v>110056.6219</v>
       </c>
       <c r="G162" t="n">
-        <v>1.776200000000002</v>
+        <v>1.775350000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.801</v>
+        <v>1.802</v>
       </c>
       <c r="C163" t="n">
         <v>1.801</v>
       </c>
       <c r="D163" t="n">
-        <v>1.801</v>
+        <v>1.802</v>
       </c>
       <c r="E163" t="n">
         <v>1.801</v>
       </c>
       <c r="F163" t="n">
-        <v>35481.2649</v>
+        <v>464518.7351</v>
       </c>
       <c r="G163" t="n">
-        <v>1.777033333333335</v>
+        <v>1.776200000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="C164" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="D164" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="E164" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="F164" t="n">
-        <v>75937.1023</v>
+        <v>35481.2649</v>
       </c>
       <c r="G164" t="n">
-        <v>1.777900000000002</v>
+        <v>1.777033333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6166,10 @@
         <v>1.803</v>
       </c>
       <c r="F165" t="n">
-        <v>8379.7482</v>
+        <v>75937.1023</v>
       </c>
       <c r="G165" t="n">
-        <v>1.778466666666668</v>
+        <v>1.777900000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.804</v>
+        <v>1.803</v>
       </c>
       <c r="C166" t="n">
-        <v>1.804</v>
+        <v>1.803</v>
       </c>
       <c r="D166" t="n">
-        <v>1.804</v>
+        <v>1.803</v>
       </c>
       <c r="E166" t="n">
-        <v>1.804</v>
+        <v>1.803</v>
       </c>
       <c r="F166" t="n">
-        <v>278</v>
+        <v>8379.7482</v>
       </c>
       <c r="G166" t="n">
-        <v>1.779050000000002</v>
+        <v>1.778466666666668</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6236,10 @@
         <v>1.804</v>
       </c>
       <c r="F167" t="n">
-        <v>424364.041</v>
+        <v>278</v>
       </c>
       <c r="G167" t="n">
-        <v>1.779483333333335</v>
+        <v>1.779050000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.806</v>
+        <v>1.804</v>
       </c>
       <c r="C168" t="n">
-        <v>1.808</v>
+        <v>1.804</v>
       </c>
       <c r="D168" t="n">
-        <v>1.808</v>
+        <v>1.804</v>
       </c>
       <c r="E168" t="n">
-        <v>1.806</v>
+        <v>1.804</v>
       </c>
       <c r="F168" t="n">
-        <v>326007.8807</v>
+        <v>424364.041</v>
       </c>
       <c r="G168" t="n">
-        <v>1.779966666666668</v>
+        <v>1.779483333333335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.809</v>
+        <v>1.806</v>
       </c>
       <c r="C169" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="D169" t="n">
-        <v>1.809</v>
+        <v>1.808</v>
       </c>
       <c r="E169" t="n">
-        <v>1.809</v>
+        <v>1.806</v>
       </c>
       <c r="F169" t="n">
-        <v>564.2151</v>
+        <v>326007.8807</v>
       </c>
       <c r="G169" t="n">
-        <v>1.780766666666668</v>
+        <v>1.779966666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6316,19 +6332,19 @@
         <v>1.809</v>
       </c>
       <c r="C170" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D170" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E170" t="n">
         <v>1.809</v>
       </c>
       <c r="F170" t="n">
-        <v>128427.3161</v>
+        <v>564.2151</v>
       </c>
       <c r="G170" t="n">
-        <v>1.781433333333335</v>
+        <v>1.780766666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.818</v>
+        <v>1.809</v>
       </c>
       <c r="C171" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="D171" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="E171" t="n">
-        <v>1.791</v>
+        <v>1.809</v>
       </c>
       <c r="F171" t="n">
-        <v>729876</v>
+        <v>128427.3161</v>
       </c>
       <c r="G171" t="n">
-        <v>1.782550000000002</v>
+        <v>1.781433333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,7 +6402,7 @@
         <v>1.818</v>
       </c>
       <c r="C172" t="n">
-        <v>1.791</v>
+        <v>1.818</v>
       </c>
       <c r="D172" t="n">
         <v>1.818</v>
@@ -6395,10 +6411,10 @@
         <v>1.791</v>
       </c>
       <c r="F172" t="n">
-        <v>3563438</v>
+        <v>729876</v>
       </c>
       <c r="G172" t="n">
-        <v>1.783066666666668</v>
+        <v>1.782550000000002</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6421,19 +6437,19 @@
         <v>1.818</v>
       </c>
       <c r="C173" t="n">
-        <v>1.818</v>
+        <v>1.791</v>
       </c>
       <c r="D173" t="n">
         <v>1.818</v>
       </c>
       <c r="E173" t="n">
-        <v>1.818</v>
+        <v>1.791</v>
       </c>
       <c r="F173" t="n">
-        <v>118603.559</v>
+        <v>3563438</v>
       </c>
       <c r="G173" t="n">
-        <v>1.784183333333335</v>
+        <v>1.783066666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6472,19 @@
         <v>1.818</v>
       </c>
       <c r="C174" t="n">
-        <v>1.817</v>
+        <v>1.818</v>
       </c>
       <c r="D174" t="n">
         <v>1.818</v>
       </c>
       <c r="E174" t="n">
-        <v>1.792</v>
+        <v>1.818</v>
       </c>
       <c r="F174" t="n">
-        <v>3094567</v>
+        <v>118603.559</v>
       </c>
       <c r="G174" t="n">
-        <v>1.785300000000001</v>
+        <v>1.784183333333335</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.794</v>
+        <v>1.818</v>
       </c>
       <c r="C175" t="n">
-        <v>1.819</v>
+        <v>1.817</v>
       </c>
       <c r="D175" t="n">
-        <v>1.819</v>
+        <v>1.818</v>
       </c>
       <c r="E175" t="n">
-        <v>1.794</v>
+        <v>1.792</v>
       </c>
       <c r="F175" t="n">
-        <v>1375280.9493</v>
+        <v>3094567</v>
       </c>
       <c r="G175" t="n">
-        <v>1.786350000000001</v>
+        <v>1.785300000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.82</v>
+        <v>1.794</v>
       </c>
       <c r="C176" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="D176" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="E176" t="n">
-        <v>1.82</v>
+        <v>1.794</v>
       </c>
       <c r="F176" t="n">
-        <v>275</v>
+        <v>1375280.9493</v>
       </c>
       <c r="G176" t="n">
-        <v>1.787533333333335</v>
+        <v>1.786350000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.818</v>
+        <v>1.82</v>
       </c>
       <c r="C177" t="n">
-        <v>1.798</v>
+        <v>1.82</v>
       </c>
       <c r="D177" t="n">
-        <v>1.818</v>
+        <v>1.82</v>
       </c>
       <c r="E177" t="n">
-        <v>1.798</v>
+        <v>1.82</v>
       </c>
       <c r="F177" t="n">
-        <v>2886279</v>
+        <v>275</v>
       </c>
       <c r="G177" t="n">
-        <v>1.788233333333335</v>
+        <v>1.787533333333335</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6612,19 @@
         <v>1.818</v>
       </c>
       <c r="C178" t="n">
-        <v>1.816</v>
+        <v>1.798</v>
       </c>
       <c r="D178" t="n">
         <v>1.818</v>
       </c>
       <c r="E178" t="n">
-        <v>1.796</v>
+        <v>1.798</v>
       </c>
       <c r="F178" t="n">
-        <v>903043.8798</v>
+        <v>2886279</v>
       </c>
       <c r="G178" t="n">
-        <v>1.789183333333335</v>
+        <v>1.788233333333335</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.798</v>
+        <v>1.818</v>
       </c>
       <c r="C179" t="n">
-        <v>1.798</v>
+        <v>1.816</v>
       </c>
       <c r="D179" t="n">
-        <v>1.798</v>
+        <v>1.818</v>
       </c>
       <c r="E179" t="n">
-        <v>1.798</v>
+        <v>1.796</v>
       </c>
       <c r="F179" t="n">
-        <v>523862</v>
+        <v>903043.8798</v>
       </c>
       <c r="G179" t="n">
-        <v>1.789983333333335</v>
+        <v>1.789183333333335</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.799</v>
+        <v>1.798</v>
       </c>
       <c r="C180" t="n">
-        <v>1.799</v>
+        <v>1.798</v>
       </c>
       <c r="D180" t="n">
-        <v>1.799</v>
+        <v>1.798</v>
       </c>
       <c r="E180" t="n">
-        <v>1.799</v>
+        <v>1.798</v>
       </c>
       <c r="F180" t="n">
-        <v>138081.3557</v>
+        <v>523862</v>
       </c>
       <c r="G180" t="n">
-        <v>1.790800000000002</v>
+        <v>1.789983333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.797</v>
+        <v>1.799</v>
       </c>
       <c r="C181" t="n">
-        <v>1.797</v>
+        <v>1.799</v>
       </c>
       <c r="D181" t="n">
-        <v>1.797</v>
+        <v>1.799</v>
       </c>
       <c r="E181" t="n">
-        <v>1.797</v>
+        <v>1.799</v>
       </c>
       <c r="F181" t="n">
-        <v>58884.6364</v>
+        <v>138081.3557</v>
       </c>
       <c r="G181" t="n">
-        <v>1.791600000000002</v>
+        <v>1.790800000000002</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.812</v>
+        <v>1.797</v>
       </c>
       <c r="C182" t="n">
-        <v>1.813</v>
+        <v>1.797</v>
       </c>
       <c r="D182" t="n">
-        <v>1.813</v>
+        <v>1.797</v>
       </c>
       <c r="E182" t="n">
-        <v>1.812</v>
+        <v>1.797</v>
       </c>
       <c r="F182" t="n">
-        <v>5320.2537</v>
+        <v>58884.6364</v>
       </c>
       <c r="G182" t="n">
-        <v>1.792550000000002</v>
+        <v>1.791600000000002</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,7 +6784,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.813</v>
+        <v>1.812</v>
       </c>
       <c r="C183" t="n">
         <v>1.813</v>
@@ -6777,13 +6793,13 @@
         <v>1.813</v>
       </c>
       <c r="E183" t="n">
-        <v>1.813</v>
+        <v>1.812</v>
       </c>
       <c r="F183" t="n">
-        <v>137332.6933</v>
+        <v>5320.2537</v>
       </c>
       <c r="G183" t="n">
-        <v>1.793500000000002</v>
+        <v>1.792550000000002</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.817</v>
+        <v>1.813</v>
       </c>
       <c r="C184" t="n">
-        <v>1.817</v>
+        <v>1.813</v>
       </c>
       <c r="D184" t="n">
-        <v>1.817</v>
+        <v>1.813</v>
       </c>
       <c r="E184" t="n">
-        <v>1.817</v>
+        <v>1.813</v>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>137332.6933</v>
       </c>
       <c r="G184" t="n">
-        <v>1.794550000000001</v>
+        <v>1.793500000000002</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.818</v>
+        <v>1.817</v>
       </c>
       <c r="C185" t="n">
-        <v>1.798</v>
+        <v>1.817</v>
       </c>
       <c r="D185" t="n">
-        <v>1.818</v>
+        <v>1.817</v>
       </c>
       <c r="E185" t="n">
-        <v>1.798</v>
+        <v>1.817</v>
       </c>
       <c r="F185" t="n">
-        <v>2344872.5779</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="n">
-        <v>1.795266666666668</v>
+        <v>1.794550000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.817</v>
+        <v>1.818</v>
       </c>
       <c r="C186" t="n">
-        <v>1.792</v>
+        <v>1.798</v>
       </c>
       <c r="D186" t="n">
-        <v>1.817</v>
+        <v>1.818</v>
       </c>
       <c r="E186" t="n">
-        <v>1.789</v>
+        <v>1.798</v>
       </c>
       <c r="F186" t="n">
-        <v>2230339</v>
+        <v>2344872.5779</v>
       </c>
       <c r="G186" t="n">
-        <v>1.795816666666668</v>
+        <v>1.795266666666668</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.816</v>
+        <v>1.817</v>
       </c>
       <c r="C187" t="n">
-        <v>1.816</v>
+        <v>1.792</v>
       </c>
       <c r="D187" t="n">
-        <v>1.816</v>
+        <v>1.817</v>
       </c>
       <c r="E187" t="n">
-        <v>1.816</v>
+        <v>1.789</v>
       </c>
       <c r="F187" t="n">
-        <v>365.999</v>
+        <v>2230339</v>
       </c>
       <c r="G187" t="n">
-        <v>1.796750000000002</v>
+        <v>1.795816666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6959,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.8</v>
+        <v>1.816</v>
       </c>
       <c r="C188" t="n">
-        <v>1.8</v>
+        <v>1.816</v>
       </c>
       <c r="D188" t="n">
-        <v>1.8</v>
+        <v>1.816</v>
       </c>
       <c r="E188" t="n">
-        <v>1.8</v>
+        <v>1.816</v>
       </c>
       <c r="F188" t="n">
-        <v>31570.368</v>
+        <v>365.999</v>
       </c>
       <c r="G188" t="n">
-        <v>1.797416666666668</v>
+        <v>1.796750000000002</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +7006,10 @@
         <v>1.8</v>
       </c>
       <c r="F189" t="n">
-        <v>188299.9032</v>
+        <v>31570.368</v>
       </c>
       <c r="G189" t="n">
-        <v>1.798083333333335</v>
+        <v>1.797416666666668</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7029,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="C190" t="n">
-        <v>1.817</v>
+        <v>1.8</v>
       </c>
       <c r="D190" t="n">
-        <v>1.817</v>
+        <v>1.8</v>
       </c>
       <c r="E190" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F190" t="n">
-        <v>37241.7882</v>
+        <v>188299.9032</v>
       </c>
       <c r="G190" t="n">
-        <v>1.799033333333334</v>
+        <v>1.798083333333335</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7064,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.801</v>
+        <v>1.81</v>
       </c>
       <c r="C191" t="n">
-        <v>1.8</v>
+        <v>1.817</v>
       </c>
       <c r="D191" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="E191" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="F191" t="n">
-        <v>121517.9054</v>
+        <v>37241.7882</v>
       </c>
       <c r="G191" t="n">
-        <v>1.799683333333334</v>
+        <v>1.799033333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.792</v>
+        <v>1.801</v>
       </c>
       <c r="C192" t="n">
-        <v>1.792</v>
+        <v>1.8</v>
       </c>
       <c r="D192" t="n">
-        <v>1.792</v>
+        <v>1.801</v>
       </c>
       <c r="E192" t="n">
-        <v>1.792</v>
+        <v>1.8</v>
       </c>
       <c r="F192" t="n">
-        <v>273589.496</v>
+        <v>121517.9054</v>
       </c>
       <c r="G192" t="n">
-        <v>1.800200000000001</v>
+        <v>1.799683333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.8</v>
+        <v>1.792</v>
       </c>
       <c r="C193" t="n">
-        <v>1.8</v>
+        <v>1.792</v>
       </c>
       <c r="D193" t="n">
-        <v>1.8</v>
+        <v>1.792</v>
       </c>
       <c r="E193" t="n">
-        <v>1.8</v>
+        <v>1.792</v>
       </c>
       <c r="F193" t="n">
-        <v>77005.1632</v>
+        <v>273589.496</v>
       </c>
       <c r="G193" t="n">
-        <v>1.800733333333334</v>
+        <v>1.800200000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7169,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="C194" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="D194" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="E194" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F194" t="n">
-        <v>611.1223</v>
+        <v>77005.1632</v>
       </c>
       <c r="G194" t="n">
-        <v>1.801266666666668</v>
+        <v>1.800733333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="C195" t="n">
-        <v>1.793</v>
+        <v>1.81</v>
       </c>
       <c r="D195" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="E195" t="n">
-        <v>1.793</v>
+        <v>1.81</v>
       </c>
       <c r="F195" t="n">
-        <v>1520600.0202</v>
+        <v>611.1223</v>
       </c>
       <c r="G195" t="n">
-        <v>1.801416666666668</v>
+        <v>1.801266666666668</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7239,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="C196" t="n">
-        <v>1.792</v>
+        <v>1.793</v>
       </c>
       <c r="D196" t="n">
         <v>1.809</v>
       </c>
       <c r="E196" t="n">
-        <v>1.792</v>
+        <v>1.793</v>
       </c>
       <c r="F196" t="n">
-        <v>2174690.5572</v>
+        <v>1520600.0202</v>
       </c>
       <c r="G196" t="n">
-        <v>1.801500000000001</v>
+        <v>1.801416666666668</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.805</v>
+        <v>1.809</v>
       </c>
       <c r="C197" t="n">
         <v>1.792</v>
       </c>
       <c r="D197" t="n">
-        <v>1.805</v>
+        <v>1.809</v>
       </c>
       <c r="E197" t="n">
         <v>1.792</v>
       </c>
       <c r="F197" t="n">
-        <v>2119747.9821</v>
+        <v>2174690.5572</v>
       </c>
       <c r="G197" t="n">
-        <v>1.801566666666668</v>
+        <v>1.801500000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7309,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.793</v>
+        <v>1.805</v>
       </c>
       <c r="C198" t="n">
-        <v>1.812</v>
+        <v>1.792</v>
       </c>
       <c r="D198" t="n">
-        <v>1.812</v>
+        <v>1.805</v>
       </c>
       <c r="E198" t="n">
-        <v>1.793</v>
+        <v>1.792</v>
       </c>
       <c r="F198" t="n">
-        <v>1052599.8958</v>
+        <v>2119747.9821</v>
       </c>
       <c r="G198" t="n">
-        <v>1.801933333333334</v>
+        <v>1.801566666666668</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="C199" t="n">
-        <v>1.794</v>
+        <v>1.812</v>
       </c>
       <c r="D199" t="n">
         <v>1.812</v>
       </c>
       <c r="E199" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="F199" t="n">
-        <v>3237982</v>
+        <v>1052599.8958</v>
       </c>
       <c r="G199" t="n">
-        <v>1.801850000000001</v>
+        <v>1.801933333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7379,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.812</v>
+        <v>1.794</v>
       </c>
       <c r="C200" t="n">
-        <v>1.812</v>
+        <v>1.794</v>
       </c>
       <c r="D200" t="n">
         <v>1.812</v>
       </c>
       <c r="E200" t="n">
-        <v>1.812</v>
+        <v>1.794</v>
       </c>
       <c r="F200" t="n">
-        <v>372.7205</v>
+        <v>3237982</v>
       </c>
       <c r="G200" t="n">
-        <v>1.802066666666667</v>
+        <v>1.801850000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7414,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.809</v>
+        <v>1.812</v>
       </c>
       <c r="C201" t="n">
-        <v>1.809</v>
+        <v>1.812</v>
       </c>
       <c r="D201" t="n">
-        <v>1.809</v>
+        <v>1.812</v>
       </c>
       <c r="E201" t="n">
-        <v>1.794</v>
+        <v>1.812</v>
       </c>
       <c r="F201" t="n">
-        <v>1057036</v>
+        <v>372.7205</v>
       </c>
       <c r="G201" t="n">
-        <v>1.802250000000001</v>
+        <v>1.802066666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,10 +7449,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="C202" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="D202" t="n">
         <v>1.809</v>
@@ -7445,10 +7461,10 @@
         <v>1.794</v>
       </c>
       <c r="F202" t="n">
-        <v>2702617</v>
+        <v>1057036</v>
       </c>
       <c r="G202" t="n">
-        <v>1.802150000000001</v>
+        <v>1.802250000000001</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7474,16 +7490,16 @@
         <v>1.794</v>
       </c>
       <c r="D203" t="n">
-        <v>1.794</v>
+        <v>1.809</v>
       </c>
       <c r="E203" t="n">
         <v>1.794</v>
       </c>
       <c r="F203" t="n">
-        <v>140184.8958</v>
+        <v>2702617</v>
       </c>
       <c r="G203" t="n">
-        <v>1.802066666666667</v>
+        <v>1.802150000000001</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7519,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.796</v>
+        <v>1.794</v>
       </c>
       <c r="C204" t="n">
-        <v>1.795</v>
+        <v>1.794</v>
       </c>
       <c r="D204" t="n">
-        <v>1.796</v>
+        <v>1.794</v>
       </c>
       <c r="E204" t="n">
-        <v>1.795</v>
+        <v>1.794</v>
       </c>
       <c r="F204" t="n">
-        <v>145877.6167</v>
+        <v>140184.8958</v>
       </c>
       <c r="G204" t="n">
-        <v>1.8021</v>
+        <v>1.802066666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7554,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.797</v>
+        <v>1.796</v>
       </c>
       <c r="C205" t="n">
-        <v>1.797</v>
+        <v>1.795</v>
       </c>
       <c r="D205" t="n">
-        <v>1.797</v>
+        <v>1.796</v>
       </c>
       <c r="E205" t="n">
-        <v>1.797</v>
+        <v>1.795</v>
       </c>
       <c r="F205" t="n">
-        <v>17000</v>
+        <v>145877.6167</v>
       </c>
       <c r="G205" t="n">
-        <v>1.802066666666667</v>
+        <v>1.8021</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7589,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="C206" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="D206" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="E206" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="F206" t="n">
-        <v>118303.559</v>
+        <v>17000</v>
       </c>
       <c r="G206" t="n">
-        <v>1.8024</v>
+        <v>1.802066666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,19 +7624,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="C207" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="D207" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="E207" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="F207" t="n">
-        <v>671061.6306</v>
+        <v>118303.559</v>
       </c>
       <c r="G207" t="n">
         <v>1.8024</v>
@@ -7655,10 +7671,10 @@
         <v>1.797</v>
       </c>
       <c r="F208" t="n">
-        <v>375350.8434</v>
+        <v>671061.6306</v>
       </c>
       <c r="G208" t="n">
-        <v>1.802433333333333</v>
+        <v>1.8024</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7694,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.809</v>
+        <v>1.797</v>
       </c>
       <c r="C209" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="D209" t="n">
-        <v>1.815</v>
+        <v>1.797</v>
       </c>
       <c r="E209" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="F209" t="n">
-        <v>810940</v>
+        <v>375350.8434</v>
       </c>
       <c r="G209" t="n">
-        <v>1.802483333333333</v>
+        <v>1.802433333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7729,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="C210" t="n">
-        <v>1.808</v>
+        <v>1.798</v>
       </c>
       <c r="D210" t="n">
-        <v>1.808</v>
+        <v>1.815</v>
       </c>
       <c r="E210" t="n">
-        <v>1.808</v>
+        <v>1.798</v>
       </c>
       <c r="F210" t="n">
-        <v>483.7612</v>
+        <v>810940</v>
       </c>
       <c r="G210" t="n">
-        <v>1.802616666666667</v>
+        <v>1.802483333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7764,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.815</v>
+        <v>1.808</v>
       </c>
       <c r="C211" t="n">
-        <v>1.798</v>
+        <v>1.808</v>
       </c>
       <c r="D211" t="n">
-        <v>1.815</v>
+        <v>1.808</v>
       </c>
       <c r="E211" t="n">
-        <v>1.798</v>
+        <v>1.808</v>
       </c>
       <c r="F211" t="n">
-        <v>1270003.68</v>
+        <v>483.7612</v>
       </c>
       <c r="G211" t="n">
-        <v>1.802566666666667</v>
+        <v>1.802616666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +7811,10 @@
         <v>1.798</v>
       </c>
       <c r="F212" t="n">
-        <v>1555505</v>
+        <v>1270003.68</v>
       </c>
       <c r="G212" t="n">
-        <v>1.802833333333334</v>
+        <v>1.802566666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7821,19 +7837,19 @@
         <v>1.815</v>
       </c>
       <c r="C213" t="n">
-        <v>1.815</v>
+        <v>1.798</v>
       </c>
       <c r="D213" t="n">
         <v>1.815</v>
       </c>
       <c r="E213" t="n">
-        <v>1.799</v>
+        <v>1.798</v>
       </c>
       <c r="F213" t="n">
-        <v>2386395</v>
+        <v>1555505</v>
       </c>
       <c r="G213" t="n">
-        <v>1.803083333333334</v>
+        <v>1.802833333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,10 +7869,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.799</v>
+        <v>1.815</v>
       </c>
       <c r="C214" t="n">
-        <v>1.799</v>
+        <v>1.815</v>
       </c>
       <c r="D214" t="n">
         <v>1.815</v>
@@ -7865,10 +7881,10 @@
         <v>1.799</v>
       </c>
       <c r="F214" t="n">
-        <v>1075840</v>
+        <v>2386395</v>
       </c>
       <c r="G214" t="n">
-        <v>1.803216666666667</v>
+        <v>1.803083333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7904,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="C215" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="D215" t="n">
-        <v>1.798</v>
+        <v>1.815</v>
       </c>
       <c r="E215" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="F215" t="n">
-        <v>367954.6279</v>
+        <v>1075840</v>
       </c>
       <c r="G215" t="n">
-        <v>1.8032</v>
+        <v>1.803216666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +7951,10 @@
         <v>1.798</v>
       </c>
       <c r="F216" t="n">
-        <v>449092.171</v>
+        <v>367954.6279</v>
       </c>
       <c r="G216" t="n">
-        <v>1.803183333333334</v>
+        <v>1.8032</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7986,10 @@
         <v>1.798</v>
       </c>
       <c r="F217" t="n">
-        <v>119780.9272</v>
+        <v>449092.171</v>
       </c>
       <c r="G217" t="n">
-        <v>1.803166666666667</v>
+        <v>1.803183333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8009,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.815</v>
+        <v>1.798</v>
       </c>
       <c r="C218" t="n">
         <v>1.798</v>
       </c>
       <c r="D218" t="n">
-        <v>1.815</v>
+        <v>1.798</v>
       </c>
       <c r="E218" t="n">
         <v>1.798</v>
       </c>
       <c r="F218" t="n">
-        <v>2249682</v>
+        <v>119780.9272</v>
       </c>
       <c r="G218" t="n">
-        <v>1.80315</v>
+        <v>1.803166666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8056,10 @@
         <v>1.798</v>
       </c>
       <c r="F219" t="n">
-        <v>1386409</v>
+        <v>2249682</v>
       </c>
       <c r="G219" t="n">
-        <v>1.803116666666667</v>
+        <v>1.80315</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8066,19 +8082,19 @@
         <v>1.815</v>
       </c>
       <c r="C220" t="n">
-        <v>1.815</v>
+        <v>1.798</v>
       </c>
       <c r="D220" t="n">
         <v>1.815</v>
       </c>
       <c r="E220" t="n">
-        <v>1.815</v>
+        <v>1.798</v>
       </c>
       <c r="F220" t="n">
-        <v>65315.1492</v>
+        <v>1386409</v>
       </c>
       <c r="G220" t="n">
-        <v>1.80335</v>
+        <v>1.803116666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8126,10 @@
         <v>1.815</v>
       </c>
       <c r="F221" t="n">
-        <v>406.6198</v>
+        <v>65315.1492</v>
       </c>
       <c r="G221" t="n">
-        <v>1.803566666666667</v>
+        <v>1.80335</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8136,19 +8152,19 @@
         <v>1.815</v>
       </c>
       <c r="C222" t="n">
-        <v>1.799</v>
+        <v>1.815</v>
       </c>
       <c r="D222" t="n">
         <v>1.815</v>
       </c>
       <c r="E222" t="n">
-        <v>1.799</v>
+        <v>1.815</v>
       </c>
       <c r="F222" t="n">
-        <v>2267912</v>
+        <v>406.6198</v>
       </c>
       <c r="G222" t="n">
-        <v>1.803533333333333</v>
+        <v>1.803566666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8180,10 +8196,10 @@
         <v>1.799</v>
       </c>
       <c r="F223" t="n">
-        <v>1992916</v>
+        <v>2267912</v>
       </c>
       <c r="G223" t="n">
-        <v>1.8035</v>
+        <v>1.803533333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8206,19 +8222,19 @@
         <v>1.815</v>
       </c>
       <c r="C224" t="n">
-        <v>1.815</v>
+        <v>1.799</v>
       </c>
       <c r="D224" t="n">
         <v>1.815</v>
       </c>
       <c r="E224" t="n">
-        <v>1.815</v>
+        <v>1.799</v>
       </c>
       <c r="F224" t="n">
-        <v>550.4133</v>
+        <v>1992916</v>
       </c>
       <c r="G224" t="n">
-        <v>1.8037</v>
+        <v>1.8035</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8266,10 @@
         <v>1.815</v>
       </c>
       <c r="F225" t="n">
-        <v>6449.5867</v>
+        <v>550.4133</v>
       </c>
       <c r="G225" t="n">
-        <v>1.8039</v>
+        <v>1.8037</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8301,10 @@
         <v>1.815</v>
       </c>
       <c r="F226" t="n">
-        <v>13198</v>
+        <v>6449.5867</v>
       </c>
       <c r="G226" t="n">
-        <v>1.804083333333333</v>
+        <v>1.8039</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8336,10 @@
         <v>1.815</v>
       </c>
       <c r="F227" t="n">
-        <v>606503.0629</v>
+        <v>13198</v>
       </c>
       <c r="G227" t="n">
-        <v>1.804266666666667</v>
+        <v>1.804083333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8355,10 +8371,10 @@
         <v>1.815</v>
       </c>
       <c r="F228" t="n">
-        <v>128795.3133</v>
+        <v>606503.0629</v>
       </c>
       <c r="G228" t="n">
-        <v>1.804383333333333</v>
+        <v>1.804266666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8394,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.814</v>
+        <v>1.815</v>
       </c>
       <c r="C229" t="n">
-        <v>1.814</v>
+        <v>1.815</v>
       </c>
       <c r="D229" t="n">
-        <v>1.814</v>
+        <v>1.815</v>
       </c>
       <c r="E229" t="n">
-        <v>1.799</v>
+        <v>1.815</v>
       </c>
       <c r="F229" t="n">
-        <v>3258034</v>
+        <v>128795.3133</v>
       </c>
       <c r="G229" t="n">
-        <v>1.804466666666667</v>
+        <v>1.804383333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,10 +8429,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.799</v>
+        <v>1.814</v>
       </c>
       <c r="C230" t="n">
-        <v>1.799</v>
+        <v>1.814</v>
       </c>
       <c r="D230" t="n">
         <v>1.814</v>
@@ -8425,10 +8441,10 @@
         <v>1.799</v>
       </c>
       <c r="F230" t="n">
-        <v>1148187</v>
+        <v>3258034</v>
       </c>
       <c r="G230" t="n">
-        <v>1.804283333333333</v>
+        <v>1.804466666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8454,16 +8470,16 @@
         <v>1.799</v>
       </c>
       <c r="D231" t="n">
-        <v>1.799</v>
+        <v>1.814</v>
       </c>
       <c r="E231" t="n">
         <v>1.799</v>
       </c>
       <c r="F231" t="n">
-        <v>672.4571999999999</v>
+        <v>1148187</v>
       </c>
       <c r="G231" t="n">
-        <v>1.803966666666667</v>
+        <v>1.804283333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8511,10 @@
         <v>1.799</v>
       </c>
       <c r="F232" t="n">
-        <v>327.5428</v>
+        <v>672.4571999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>1.8041</v>
+        <v>1.803966666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8521,19 +8537,19 @@
         <v>1.799</v>
       </c>
       <c r="C233" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="D233" t="n">
         <v>1.799</v>
       </c>
       <c r="E233" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="F233" t="n">
-        <v>285060.592</v>
+        <v>327.5428</v>
       </c>
       <c r="G233" t="n">
-        <v>1.803766666666667</v>
+        <v>1.8041</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8569,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.815</v>
+        <v>1.799</v>
       </c>
       <c r="C234" t="n">
         <v>1.798</v>
       </c>
       <c r="D234" t="n">
-        <v>1.815</v>
+        <v>1.799</v>
       </c>
       <c r="E234" t="n">
         <v>1.798</v>
       </c>
       <c r="F234" t="n">
-        <v>1665667</v>
+        <v>285060.592</v>
       </c>
       <c r="G234" t="n">
-        <v>1.803450000000001</v>
+        <v>1.803766666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8604,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.814</v>
+        <v>1.815</v>
       </c>
       <c r="C235" t="n">
         <v>1.798</v>
       </c>
       <c r="D235" t="n">
-        <v>1.814</v>
+        <v>1.815</v>
       </c>
       <c r="E235" t="n">
         <v>1.798</v>
       </c>
       <c r="F235" t="n">
-        <v>2922143</v>
+        <v>1665667</v>
       </c>
       <c r="G235" t="n">
-        <v>1.803100000000001</v>
+        <v>1.803450000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8639,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.798</v>
+        <v>1.814</v>
       </c>
       <c r="C236" t="n">
         <v>1.798</v>
       </c>
       <c r="D236" t="n">
-        <v>1.798</v>
+        <v>1.814</v>
       </c>
       <c r="E236" t="n">
         <v>1.798</v>
       </c>
       <c r="F236" t="n">
-        <v>1674260.287748053</v>
+        <v>2922143</v>
       </c>
       <c r="G236" t="n">
-        <v>1.802733333333334</v>
+        <v>1.803100000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8674,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="C237" t="n">
-        <v>1.796</v>
+        <v>1.798</v>
       </c>
       <c r="D237" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="E237" t="n">
-        <v>1.796</v>
+        <v>1.798</v>
       </c>
       <c r="F237" t="n">
-        <v>348022.1779</v>
+        <v>1674260.287748053</v>
       </c>
       <c r="G237" t="n">
-        <v>1.802700000000001</v>
+        <v>1.802733333333334</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8709,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.796</v>
+        <v>1.797</v>
       </c>
       <c r="C238" t="n">
         <v>1.796</v>
       </c>
       <c r="D238" t="n">
-        <v>1.796</v>
+        <v>1.797</v>
       </c>
       <c r="E238" t="n">
         <v>1.796</v>
       </c>
       <c r="F238" t="n">
-        <v>1022283.5511</v>
+        <v>348022.1779</v>
       </c>
       <c r="G238" t="n">
-        <v>1.802366666666668</v>
+        <v>1.802700000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8740,10 +8756,10 @@
         <v>1.796</v>
       </c>
       <c r="F239" t="n">
-        <v>361875.1923</v>
+        <v>1022283.5511</v>
       </c>
       <c r="G239" t="n">
-        <v>1.802333333333334</v>
+        <v>1.802366666666668</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8775,10 +8791,10 @@
         <v>1.796</v>
       </c>
       <c r="F240" t="n">
-        <v>279</v>
+        <v>361875.1923</v>
       </c>
       <c r="G240" t="n">
-        <v>1.802283333333334</v>
+        <v>1.802333333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8814,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.789</v>
+        <v>1.796</v>
       </c>
       <c r="C241" t="n">
-        <v>1.789</v>
+        <v>1.796</v>
       </c>
       <c r="D241" t="n">
-        <v>1.789</v>
+        <v>1.796</v>
       </c>
       <c r="E241" t="n">
-        <v>1.789</v>
+        <v>1.796</v>
       </c>
       <c r="F241" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G241" t="n">
-        <v>1.802150000000001</v>
+        <v>1.802283333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8849,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="C242" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="D242" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="E242" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="F242" t="n">
-        <v>1818.1818</v>
+        <v>280</v>
       </c>
       <c r="G242" t="n">
-        <v>1.801733333333334</v>
+        <v>1.802150000000001</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8884,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.796</v>
+        <v>1.788</v>
       </c>
       <c r="C243" t="n">
-        <v>1.796</v>
+        <v>1.788</v>
       </c>
       <c r="D243" t="n">
-        <v>1.796</v>
+        <v>1.788</v>
       </c>
       <c r="E243" t="n">
-        <v>1.796</v>
+        <v>1.788</v>
       </c>
       <c r="F243" t="n">
-        <v>439.567</v>
+        <v>1818.1818</v>
       </c>
       <c r="G243" t="n">
-        <v>1.801450000000001</v>
+        <v>1.801733333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8919,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="C244" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="D244" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="E244" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="F244" t="n">
-        <v>1818.1818</v>
+        <v>439.567</v>
       </c>
       <c r="G244" t="n">
-        <v>1.800950000000001</v>
+        <v>1.801450000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8954,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="C245" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="D245" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="E245" t="n">
-        <v>1.785</v>
+        <v>1.787</v>
       </c>
       <c r="F245" t="n">
         <v>1818.1818</v>
       </c>
       <c r="G245" t="n">
-        <v>1.800733333333334</v>
+        <v>1.800950000000001</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +8989,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="C246" t="n">
-        <v>1.788</v>
+        <v>1.785</v>
       </c>
       <c r="D246" t="n">
-        <v>1.789</v>
+        <v>1.785</v>
       </c>
       <c r="E246" t="n">
-        <v>1.748</v>
+        <v>1.785</v>
       </c>
       <c r="F246" t="n">
-        <v>1919448.7616</v>
+        <v>1818.1818</v>
       </c>
       <c r="G246" t="n">
-        <v>1.800666666666668</v>
+        <v>1.800733333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9024,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C247" t="n">
         <v>1.788</v>
       </c>
-      <c r="C247" t="n">
-        <v>1.748</v>
-      </c>
       <c r="D247" t="n">
-        <v>1.788</v>
+        <v>1.789</v>
       </c>
       <c r="E247" t="n">
         <v>1.748</v>
       </c>
       <c r="F247" t="n">
-        <v>2867335.5577</v>
+        <v>1919448.7616</v>
       </c>
       <c r="G247" t="n">
-        <v>1.799533333333334</v>
+        <v>1.800666666666668</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9059,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="C248" t="n">
-        <v>1.779</v>
+        <v>1.748</v>
       </c>
       <c r="D248" t="n">
-        <v>1.779</v>
+        <v>1.788</v>
       </c>
       <c r="E248" t="n">
-        <v>1.749</v>
+        <v>1.748</v>
       </c>
       <c r="F248" t="n">
-        <v>1066766</v>
+        <v>2867335.5577</v>
       </c>
       <c r="G248" t="n">
-        <v>1.799183333333334</v>
+        <v>1.799533333333334</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9094,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.751</v>
+        <v>1.777</v>
       </c>
       <c r="C249" t="n">
-        <v>1.751</v>
+        <v>1.779</v>
       </c>
       <c r="D249" t="n">
         <v>1.779</v>
       </c>
       <c r="E249" t="n">
-        <v>1.751</v>
+        <v>1.749</v>
       </c>
       <c r="F249" t="n">
-        <v>2561223.23</v>
+        <v>1066766</v>
       </c>
       <c r="G249" t="n">
-        <v>1.798366666666668</v>
+        <v>1.799183333333334</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9129,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="C250" t="n">
-        <v>1.744</v>
+        <v>1.751</v>
       </c>
       <c r="D250" t="n">
-        <v>1.75</v>
+        <v>1.779</v>
       </c>
       <c r="E250" t="n">
-        <v>1.744</v>
+        <v>1.751</v>
       </c>
       <c r="F250" t="n">
-        <v>1198871.1623</v>
+        <v>2561223.23</v>
       </c>
       <c r="G250" t="n">
-        <v>1.797150000000001</v>
+        <v>1.798366666666668</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9164,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.755</v>
+        <v>1.75</v>
       </c>
       <c r="C251" t="n">
-        <v>1.74</v>
+        <v>1.744</v>
       </c>
       <c r="D251" t="n">
-        <v>1.755</v>
+        <v>1.75</v>
       </c>
       <c r="E251" t="n">
-        <v>1.74</v>
+        <v>1.744</v>
       </c>
       <c r="F251" t="n">
-        <v>200000</v>
+        <v>1198871.1623</v>
       </c>
       <c r="G251" t="n">
-        <v>1.796150000000001</v>
+        <v>1.797150000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9199,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.739</v>
+        <v>1.755</v>
       </c>
       <c r="C252" t="n">
-        <v>1.766</v>
+        <v>1.74</v>
       </c>
       <c r="D252" t="n">
-        <v>1.766</v>
+        <v>1.755</v>
       </c>
       <c r="E252" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="F252" t="n">
-        <v>451617.6763</v>
+        <v>200000</v>
       </c>
       <c r="G252" t="n">
-        <v>1.795716666666668</v>
+        <v>1.796150000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9234,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.735</v>
+        <v>1.739</v>
       </c>
       <c r="C253" t="n">
-        <v>1.733</v>
+        <v>1.766</v>
       </c>
       <c r="D253" t="n">
-        <v>1.758</v>
+        <v>1.766</v>
       </c>
       <c r="E253" t="n">
-        <v>1.733</v>
+        <v>1.736</v>
       </c>
       <c r="F253" t="n">
-        <v>2441181.28</v>
+        <v>451617.6763</v>
       </c>
       <c r="G253" t="n">
-        <v>1.794600000000002</v>
+        <v>1.795716666666668</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9269,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.768</v>
+        <v>1.735</v>
       </c>
       <c r="C254" t="n">
-        <v>1.732</v>
+        <v>1.733</v>
       </c>
       <c r="D254" t="n">
-        <v>1.768</v>
+        <v>1.758</v>
       </c>
       <c r="E254" t="n">
-        <v>1.732</v>
+        <v>1.733</v>
       </c>
       <c r="F254" t="n">
-        <v>830307</v>
+        <v>2441181.28</v>
       </c>
       <c r="G254" t="n">
-        <v>1.793300000000001</v>
+        <v>1.794600000000002</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9304,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.756</v>
+        <v>1.768</v>
       </c>
       <c r="C255" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="D255" t="n">
-        <v>1.756</v>
+        <v>1.768</v>
       </c>
       <c r="E255" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="F255" t="n">
-        <v>3696079</v>
+        <v>830307</v>
       </c>
       <c r="G255" t="n">
-        <v>1.792300000000001</v>
+        <v>1.793300000000001</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9326,7 +9342,7 @@
         <v>1.756</v>
       </c>
       <c r="C256" t="n">
-        <v>1.756</v>
+        <v>1.733</v>
       </c>
       <c r="D256" t="n">
         <v>1.756</v>
@@ -9335,10 +9351,10 @@
         <v>1.733</v>
       </c>
       <c r="F256" t="n">
-        <v>2078464</v>
+        <v>3696079</v>
       </c>
       <c r="G256" t="n">
-        <v>1.791700000000001</v>
+        <v>1.792300000000001</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9361,7 +9377,7 @@
         <v>1.756</v>
       </c>
       <c r="C257" t="n">
-        <v>1.733</v>
+        <v>1.756</v>
       </c>
       <c r="D257" t="n">
         <v>1.756</v>
@@ -9370,10 +9386,10 @@
         <v>1.733</v>
       </c>
       <c r="F257" t="n">
-        <v>1329726</v>
+        <v>2078464</v>
       </c>
       <c r="G257" t="n">
-        <v>1.790716666666668</v>
+        <v>1.791700000000001</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9409,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.74</v>
+        <v>1.756</v>
       </c>
       <c r="C258" t="n">
-        <v>1.74</v>
+        <v>1.733</v>
       </c>
       <c r="D258" t="n">
-        <v>1.74</v>
+        <v>1.756</v>
       </c>
       <c r="E258" t="n">
-        <v>1.74</v>
+        <v>1.733</v>
       </c>
       <c r="F258" t="n">
-        <v>201352.3255</v>
+        <v>1329726</v>
       </c>
       <c r="G258" t="n">
-        <v>1.789516666666668</v>
+        <v>1.790716666666668</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9431,19 +9447,19 @@
         <v>1.74</v>
       </c>
       <c r="C259" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="D259" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="E259" t="n">
-        <v>1.733</v>
+        <v>1.74</v>
       </c>
       <c r="F259" t="n">
-        <v>1105736.4247</v>
+        <v>201352.3255</v>
       </c>
       <c r="G259" t="n">
-        <v>1.788850000000001</v>
+        <v>1.789516666666668</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,10 +9479,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.733</v>
+        <v>1.74</v>
       </c>
       <c r="C260" t="n">
-        <v>1.733</v>
+        <v>1.754</v>
       </c>
       <c r="D260" t="n">
         <v>1.754</v>
@@ -9475,10 +9491,10 @@
         <v>1.733</v>
       </c>
       <c r="F260" t="n">
-        <v>3390523</v>
+        <v>1105736.4247</v>
       </c>
       <c r="G260" t="n">
-        <v>1.787533333333335</v>
+        <v>1.788850000000001</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9514,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.755</v>
+        <v>1.733</v>
       </c>
       <c r="C261" t="n">
-        <v>1.755</v>
+        <v>1.733</v>
       </c>
       <c r="D261" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="E261" t="n">
-        <v>1.755</v>
+        <v>1.733</v>
       </c>
       <c r="F261" t="n">
-        <v>3555.1295</v>
+        <v>3390523</v>
       </c>
       <c r="G261" t="n">
-        <v>1.786633333333335</v>
+        <v>1.787533333333335</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9536,19 +9552,19 @@
         <v>1.755</v>
       </c>
       <c r="C262" t="n">
-        <v>1.748</v>
+        <v>1.755</v>
       </c>
       <c r="D262" t="n">
-        <v>1.768</v>
+        <v>1.755</v>
       </c>
       <c r="E262" t="n">
-        <v>1.733</v>
+        <v>1.755</v>
       </c>
       <c r="F262" t="n">
-        <v>1670510</v>
+        <v>3555.1295</v>
       </c>
       <c r="G262" t="n">
-        <v>1.785866666666668</v>
+        <v>1.786633333333335</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9584,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.733</v>
+        <v>1.755</v>
       </c>
       <c r="C263" t="n">
-        <v>1.741</v>
+        <v>1.748</v>
       </c>
       <c r="D263" t="n">
-        <v>1.777</v>
+        <v>1.768</v>
       </c>
       <c r="E263" t="n">
         <v>1.733</v>
       </c>
       <c r="F263" t="n">
-        <v>2643511.03</v>
+        <v>1670510</v>
       </c>
       <c r="G263" t="n">
-        <v>1.784983333333335</v>
+        <v>1.785866666666668</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9603,22 +9619,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.75</v>
+        <v>1.733</v>
       </c>
       <c r="C264" t="n">
-        <v>1.765</v>
+        <v>1.741</v>
       </c>
       <c r="D264" t="n">
-        <v>1.765</v>
+        <v>1.777</v>
       </c>
       <c r="E264" t="n">
-        <v>1.75</v>
+        <v>1.733</v>
       </c>
       <c r="F264" t="n">
-        <v>71546.50900000001</v>
+        <v>2643511.03</v>
       </c>
       <c r="G264" t="n">
-        <v>1.784483333333335</v>
+        <v>1.784983333333335</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,22 +9654,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.755</v>
+        <v>1.75</v>
       </c>
       <c r="C265" t="n">
-        <v>1.741</v>
+        <v>1.765</v>
       </c>
       <c r="D265" t="n">
-        <v>1.755</v>
+        <v>1.765</v>
       </c>
       <c r="E265" t="n">
-        <v>1.741</v>
+        <v>1.75</v>
       </c>
       <c r="F265" t="n">
-        <v>1342068</v>
+        <v>71546.50900000001</v>
       </c>
       <c r="G265" t="n">
-        <v>1.783550000000002</v>
+        <v>1.784483333333335</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9676,19 +9692,19 @@
         <v>1.755</v>
       </c>
       <c r="C266" t="n">
-        <v>1.733</v>
+        <v>1.741</v>
       </c>
       <c r="D266" t="n">
         <v>1.755</v>
       </c>
       <c r="E266" t="n">
-        <v>1.733</v>
+        <v>1.741</v>
       </c>
       <c r="F266" t="n">
-        <v>2161510</v>
+        <v>1342068</v>
       </c>
       <c r="G266" t="n">
-        <v>1.782466666666668</v>
+        <v>1.783550000000002</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9711,19 +9727,19 @@
         <v>1.755</v>
       </c>
       <c r="C267" t="n">
-        <v>1.755</v>
+        <v>1.733</v>
       </c>
       <c r="D267" t="n">
         <v>1.755</v>
       </c>
       <c r="E267" t="n">
-        <v>1.755</v>
+        <v>1.733</v>
       </c>
       <c r="F267" t="n">
-        <v>1000</v>
+        <v>2161510</v>
       </c>
       <c r="G267" t="n">
-        <v>1.781766666666668</v>
+        <v>1.782466666666668</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9746,19 +9762,19 @@
         <v>1.755</v>
       </c>
       <c r="C268" t="n">
-        <v>1.741</v>
+        <v>1.755</v>
       </c>
       <c r="D268" t="n">
         <v>1.755</v>
       </c>
       <c r="E268" t="n">
-        <v>1.741</v>
+        <v>1.755</v>
       </c>
       <c r="F268" t="n">
-        <v>707658</v>
+        <v>1000</v>
       </c>
       <c r="G268" t="n">
-        <v>1.780833333333335</v>
+        <v>1.781766666666668</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9781,19 +9797,19 @@
         <v>1.755</v>
       </c>
       <c r="C269" t="n">
-        <v>1.733</v>
+        <v>1.741</v>
       </c>
       <c r="D269" t="n">
         <v>1.755</v>
       </c>
       <c r="E269" t="n">
-        <v>1.733</v>
+        <v>1.741</v>
       </c>
       <c r="F269" t="n">
-        <v>3097561</v>
+        <v>707658</v>
       </c>
       <c r="G269" t="n">
-        <v>1.779750000000002</v>
+        <v>1.780833333333335</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9829,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.756</v>
+        <v>1.755</v>
       </c>
       <c r="C270" t="n">
-        <v>1.756</v>
+        <v>1.733</v>
       </c>
       <c r="D270" t="n">
-        <v>1.756</v>
+        <v>1.755</v>
       </c>
       <c r="E270" t="n">
-        <v>1.756</v>
+        <v>1.733</v>
       </c>
       <c r="F270" t="n">
-        <v>355.8029</v>
+        <v>3097561</v>
       </c>
       <c r="G270" t="n">
-        <v>1.778883333333335</v>
+        <v>1.779750000000002</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,22 +9864,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.755</v>
+        <v>1.756</v>
       </c>
       <c r="C271" t="n">
-        <v>1.741</v>
+        <v>1.756</v>
       </c>
       <c r="D271" t="n">
-        <v>1.755</v>
+        <v>1.756</v>
       </c>
       <c r="E271" t="n">
-        <v>1.741</v>
+        <v>1.756</v>
       </c>
       <c r="F271" t="n">
-        <v>2222213</v>
+        <v>355.8029</v>
       </c>
       <c r="G271" t="n">
-        <v>1.777933333333335</v>
+        <v>1.778883333333335</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9895,10 +9911,10 @@
         <v>1.741</v>
       </c>
       <c r="F272" t="n">
-        <v>1850816</v>
+        <v>2222213</v>
       </c>
       <c r="G272" t="n">
-        <v>1.776983333333335</v>
+        <v>1.777933333333335</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9921,19 +9937,19 @@
         <v>1.755</v>
       </c>
       <c r="C273" t="n">
-        <v>1.755</v>
+        <v>1.741</v>
       </c>
       <c r="D273" t="n">
         <v>1.755</v>
       </c>
       <c r="E273" t="n">
-        <v>1.755</v>
+        <v>1.741</v>
       </c>
       <c r="F273" t="n">
-        <v>609.2824000000001</v>
+        <v>1850816</v>
       </c>
       <c r="G273" t="n">
-        <v>1.775983333333335</v>
+        <v>1.776983333333335</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9962,13 +9978,13 @@
         <v>1.755</v>
       </c>
       <c r="E274" t="n">
-        <v>1.741</v>
+        <v>1.755</v>
       </c>
       <c r="F274" t="n">
-        <v>1801858</v>
+        <v>609.2824000000001</v>
       </c>
       <c r="G274" t="n">
-        <v>1.775250000000001</v>
+        <v>1.775983333333335</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +10004,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1.756</v>
+        <v>1.755</v>
       </c>
       <c r="C275" t="n">
-        <v>1.741</v>
+        <v>1.755</v>
       </c>
       <c r="D275" t="n">
-        <v>1.778</v>
+        <v>1.755</v>
       </c>
       <c r="E275" t="n">
         <v>1.741</v>
       </c>
       <c r="F275" t="n">
-        <v>2315928.4303</v>
+        <v>1801858</v>
       </c>
       <c r="G275" t="n">
-        <v>1.774300000000001</v>
+        <v>1.775250000000001</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,35 +10039,31 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1.743</v>
+        <v>1.756</v>
       </c>
       <c r="C276" t="n">
-        <v>1.743</v>
+        <v>1.741</v>
       </c>
       <c r="D276" t="n">
-        <v>1.743</v>
+        <v>1.778</v>
       </c>
       <c r="E276" t="n">
-        <v>1.743</v>
+        <v>1.741</v>
       </c>
       <c r="F276" t="n">
-        <v>2591.08</v>
+        <v>2315928.4303</v>
       </c>
       <c r="G276" t="n">
-        <v>1.773383333333335</v>
+        <v>1.774300000000001</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="K276" t="n">
-        <v>1.741</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
@@ -10062,40 +10074,32 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.776</v>
+        <v>1.743</v>
       </c>
       <c r="C277" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="D277" t="n">
-        <v>1.776</v>
+        <v>1.743</v>
       </c>
       <c r="E277" t="n">
-        <v>1.744</v>
+        <v>1.743</v>
       </c>
       <c r="F277" t="n">
-        <v>651625</v>
+        <v>2591.08</v>
       </c>
       <c r="G277" t="n">
-        <v>1.772483333333335</v>
+        <v>1.773383333333335</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K277" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>1.776</v>
       </c>
       <c r="C278" t="n">
-        <v>1.774</v>
+        <v>1.744</v>
       </c>
       <c r="D278" t="n">
         <v>1.776</v>
@@ -10117,28 +10121,20 @@
         <v>1.744</v>
       </c>
       <c r="F278" t="n">
-        <v>2840891</v>
+        <v>651625</v>
       </c>
       <c r="G278" t="n">
-        <v>1.772083333333335</v>
+        <v>1.772483333333335</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K278" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10148,22 +10144,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1.744</v>
+        <v>1.776</v>
       </c>
       <c r="C279" t="n">
-        <v>1.744</v>
+        <v>1.774</v>
       </c>
       <c r="D279" t="n">
-        <v>1.744</v>
+        <v>1.776</v>
       </c>
       <c r="E279" t="n">
         <v>1.744</v>
       </c>
       <c r="F279" t="n">
-        <v>468628</v>
+        <v>2840891</v>
       </c>
       <c r="G279" t="n">
-        <v>1.771183333333334</v>
+        <v>1.772083333333335</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10183,22 +10179,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1.774</v>
+        <v>1.744</v>
       </c>
       <c r="C280" t="n">
-        <v>1.747</v>
+        <v>1.744</v>
       </c>
       <c r="D280" t="n">
-        <v>1.774</v>
+        <v>1.744</v>
       </c>
       <c r="E280" t="n">
-        <v>1.747</v>
+        <v>1.744</v>
       </c>
       <c r="F280" t="n">
-        <v>2813470</v>
+        <v>468628</v>
       </c>
       <c r="G280" t="n">
-        <v>1.770050000000001</v>
+        <v>1.771183333333334</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10218,22 +10214,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1.772</v>
+        <v>1.774</v>
       </c>
       <c r="C281" t="n">
         <v>1.747</v>
       </c>
       <c r="D281" t="n">
-        <v>1.772</v>
+        <v>1.774</v>
       </c>
       <c r="E281" t="n">
         <v>1.747</v>
       </c>
       <c r="F281" t="n">
-        <v>828757</v>
+        <v>2813470</v>
       </c>
       <c r="G281" t="n">
-        <v>1.768916666666668</v>
+        <v>1.770050000000001</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10256,19 +10252,19 @@
         <v>1.772</v>
       </c>
       <c r="C282" t="n">
-        <v>1.772</v>
+        <v>1.747</v>
       </c>
       <c r="D282" t="n">
         <v>1.772</v>
       </c>
       <c r="E282" t="n">
-        <v>1.772</v>
+        <v>1.747</v>
       </c>
       <c r="F282" t="n">
-        <v>1297.7525</v>
+        <v>828757</v>
       </c>
       <c r="G282" t="n">
-        <v>1.768466666666668</v>
+        <v>1.768916666666668</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10291,19 +10287,19 @@
         <v>1.772</v>
       </c>
       <c r="C283" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="D283" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="E283" t="n">
         <v>1.772</v>
       </c>
       <c r="F283" t="n">
-        <v>2855.5478</v>
+        <v>1297.7525</v>
       </c>
       <c r="G283" t="n">
-        <v>1.768033333333334</v>
+        <v>1.768466666666668</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10323,10 +10319,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C284" t="n">
         <v>1.773</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1.772</v>
       </c>
       <c r="D284" t="n">
         <v>1.773</v>
@@ -10335,10 +10331,10 @@
         <v>1.772</v>
       </c>
       <c r="F284" t="n">
-        <v>2499.374</v>
+        <v>2855.5478</v>
       </c>
       <c r="G284" t="n">
-        <v>1.767316666666668</v>
+        <v>1.768033333333334</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10358,22 +10354,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1.772</v>
+        <v>1.773</v>
       </c>
       <c r="C285" t="n">
         <v>1.772</v>
       </c>
       <c r="D285" t="n">
-        <v>1.772</v>
+        <v>1.773</v>
       </c>
       <c r="E285" t="n">
         <v>1.772</v>
       </c>
       <c r="F285" t="n">
-        <v>359.2851</v>
+        <v>2499.374</v>
       </c>
       <c r="G285" t="n">
-        <v>1.766600000000001</v>
+        <v>1.767316666666668</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10396,19 +10392,19 @@
         <v>1.772</v>
       </c>
       <c r="C286" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="D286" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="E286" t="n">
         <v>1.772</v>
       </c>
       <c r="F286" t="n">
-        <v>1062.347</v>
+        <v>359.2851</v>
       </c>
       <c r="G286" t="n">
-        <v>1.765900000000001</v>
+        <v>1.766600000000001</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10428,22 +10424,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="C287" t="n">
-        <v>1.766</v>
+        <v>1.773</v>
       </c>
       <c r="D287" t="n">
-        <v>1.768</v>
+        <v>1.773</v>
       </c>
       <c r="E287" t="n">
-        <v>1.766</v>
+        <v>1.772</v>
       </c>
       <c r="F287" t="n">
-        <v>207203.9028</v>
+        <v>1062.347</v>
       </c>
       <c r="G287" t="n">
-        <v>1.765083333333335</v>
+        <v>1.765900000000001</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10463,22 +10459,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1.761</v>
+        <v>1.768</v>
       </c>
       <c r="C288" t="n">
         <v>1.766</v>
       </c>
       <c r="D288" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E288" t="n">
         <v>1.766</v>
       </c>
-      <c r="E288" t="n">
-        <v>1.747</v>
-      </c>
       <c r="F288" t="n">
-        <v>2711247</v>
+        <v>207203.9028</v>
       </c>
       <c r="G288" t="n">
-        <v>1.764266666666668</v>
+        <v>1.765083333333335</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10498,22 +10494,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1.747</v>
+        <v>1.761</v>
       </c>
       <c r="C289" t="n">
-        <v>1.747</v>
+        <v>1.766</v>
       </c>
       <c r="D289" t="n">
-        <v>1.747</v>
+        <v>1.766</v>
       </c>
       <c r="E289" t="n">
         <v>1.747</v>
       </c>
       <c r="F289" t="n">
-        <v>548152</v>
+        <v>2711247</v>
       </c>
       <c r="G289" t="n">
-        <v>1.763150000000002</v>
+        <v>1.764266666666668</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10533,22 +10529,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1.75</v>
+        <v>1.747</v>
       </c>
       <c r="C290" t="n">
-        <v>1.746</v>
+        <v>1.747</v>
       </c>
       <c r="D290" t="n">
-        <v>1.75</v>
+        <v>1.747</v>
       </c>
       <c r="E290" t="n">
-        <v>1.746</v>
+        <v>1.747</v>
       </c>
       <c r="F290" t="n">
-        <v>177624.6763</v>
+        <v>548152</v>
       </c>
       <c r="G290" t="n">
-        <v>1.762266666666668</v>
+        <v>1.763150000000002</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10568,22 +10564,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1.747</v>
+        <v>1.75</v>
       </c>
       <c r="C291" t="n">
-        <v>1.747</v>
+        <v>1.746</v>
       </c>
       <c r="D291" t="n">
-        <v>1.747</v>
+        <v>1.75</v>
       </c>
       <c r="E291" t="n">
-        <v>1.747</v>
+        <v>1.746</v>
       </c>
       <c r="F291" t="n">
-        <v>100000</v>
+        <v>177624.6763</v>
       </c>
       <c r="G291" t="n">
-        <v>1.761400000000001</v>
+        <v>1.762266666666668</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10615,10 +10611,10 @@
         <v>1.747</v>
       </c>
       <c r="F292" t="n">
-        <v>30660.8309</v>
+        <v>100000</v>
       </c>
       <c r="G292" t="n">
-        <v>1.760533333333335</v>
+        <v>1.761400000000001</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10638,22 +10634,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.759</v>
+        <v>1.747</v>
       </c>
       <c r="C293" t="n">
-        <v>1.759</v>
+        <v>1.747</v>
       </c>
       <c r="D293" t="n">
-        <v>1.759</v>
+        <v>1.747</v>
       </c>
       <c r="E293" t="n">
-        <v>1.759</v>
+        <v>1.747</v>
       </c>
       <c r="F293" t="n">
-        <v>55617.0829</v>
+        <v>30660.8309</v>
       </c>
       <c r="G293" t="n">
-        <v>1.759883333333335</v>
+        <v>1.760533333333335</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10673,22 +10669,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="C294" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="D294" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="E294" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="F294" t="n">
-        <v>73854.42939999999</v>
+        <v>55617.0829</v>
       </c>
       <c r="G294" t="n">
-        <v>1.759166666666668</v>
+        <v>1.759883333333335</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10720,10 +10716,10 @@
         <v>1.755</v>
       </c>
       <c r="F295" t="n">
-        <v>9620.834999999999</v>
+        <v>73854.42939999999</v>
       </c>
       <c r="G295" t="n">
-        <v>1.758450000000001</v>
+        <v>1.759166666666668</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10743,22 +10739,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1.765</v>
+        <v>1.755</v>
       </c>
       <c r="C296" t="n">
-        <v>1.75</v>
+        <v>1.755</v>
       </c>
       <c r="D296" t="n">
-        <v>1.765</v>
+        <v>1.755</v>
       </c>
       <c r="E296" t="n">
-        <v>1.749</v>
+        <v>1.755</v>
       </c>
       <c r="F296" t="n">
-        <v>3549026.8557</v>
+        <v>9620.834999999999</v>
       </c>
       <c r="G296" t="n">
-        <v>1.757650000000001</v>
+        <v>1.758450000000001</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10778,22 +10774,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C297" t="n">
         <v>1.75</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1.765</v>
       </c>
       <c r="D297" t="n">
         <v>1.765</v>
       </c>
       <c r="E297" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="F297" t="n">
-        <v>265329.3214</v>
+        <v>3549026.8557</v>
       </c>
       <c r="G297" t="n">
-        <v>1.757133333333334</v>
+        <v>1.757650000000001</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10813,22 +10809,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="C298" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="D298" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="E298" t="n">
-        <v>1.766</v>
+        <v>1.75</v>
       </c>
       <c r="F298" t="n">
-        <v>1256.4553</v>
+        <v>265329.3214</v>
       </c>
       <c r="G298" t="n">
-        <v>1.756633333333334</v>
+        <v>1.757133333333334</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10848,22 +10844,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>1.773</v>
+        <v>1.766</v>
       </c>
       <c r="C299" t="n">
-        <v>1.775</v>
+        <v>1.766</v>
       </c>
       <c r="D299" t="n">
-        <v>1.775</v>
+        <v>1.766</v>
       </c>
       <c r="E299" t="n">
-        <v>1.773</v>
+        <v>1.766</v>
       </c>
       <c r="F299" t="n">
-        <v>1349.6704</v>
+        <v>1256.4553</v>
       </c>
       <c r="G299" t="n">
-        <v>1.756283333333334</v>
+        <v>1.756633333333334</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10883,22 +10879,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="C300" t="n">
         <v>1.775</v>
       </c>
-      <c r="C300" t="n">
-        <v>1.776</v>
-      </c>
       <c r="D300" t="n">
-        <v>1.776</v>
+        <v>1.775</v>
       </c>
       <c r="E300" t="n">
-        <v>1.775</v>
+        <v>1.773</v>
       </c>
       <c r="F300" t="n">
-        <v>505.5902</v>
+        <v>1349.6704</v>
       </c>
       <c r="G300" t="n">
-        <v>1.755950000000001</v>
+        <v>1.756283333333334</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10918,22 +10914,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C301" t="n">
         <v>1.776</v>
       </c>
-      <c r="C301" t="n">
-        <v>1.78</v>
-      </c>
       <c r="D301" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="E301" t="n">
-        <v>1.776</v>
+        <v>1.775</v>
       </c>
       <c r="F301" t="n">
-        <v>1836.4783</v>
+        <v>505.5902</v>
       </c>
       <c r="G301" t="n">
-        <v>1.755800000000001</v>
+        <v>1.755950000000001</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10953,22 +10949,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="C302" t="n">
         <v>1.78</v>
       </c>
-      <c r="C302" t="n">
-        <v>1.791</v>
-      </c>
       <c r="D302" t="n">
-        <v>1.791</v>
+        <v>1.78</v>
       </c>
       <c r="E302" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="F302" t="n">
-        <v>15827.2975</v>
+        <v>1836.4783</v>
       </c>
       <c r="G302" t="n">
-        <v>1.755850000000001</v>
+        <v>1.755800000000001</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10988,7 +10984,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1.791</v>
+        <v>1.78</v>
       </c>
       <c r="C303" t="n">
         <v>1.791</v>
@@ -10997,13 +10993,13 @@
         <v>1.791</v>
       </c>
       <c r="E303" t="n">
-        <v>1.791</v>
+        <v>1.78</v>
       </c>
       <c r="F303" t="n">
-        <v>8991.1181</v>
+        <v>15827.2975</v>
       </c>
       <c r="G303" t="n">
-        <v>1.755766666666667</v>
+        <v>1.755850000000001</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11032,13 +11028,13 @@
         <v>1.791</v>
       </c>
       <c r="E304" t="n">
-        <v>1.79</v>
+        <v>1.791</v>
       </c>
       <c r="F304" t="n">
-        <v>22470.4041</v>
+        <v>8991.1181</v>
       </c>
       <c r="G304" t="n">
-        <v>1.755833333333334</v>
+        <v>1.755766666666667</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11061,19 +11057,19 @@
         <v>1.791</v>
       </c>
       <c r="C305" t="n">
-        <v>1.776</v>
+        <v>1.791</v>
       </c>
       <c r="D305" t="n">
-        <v>1.797</v>
+        <v>1.791</v>
       </c>
       <c r="E305" t="n">
-        <v>1.776</v>
+        <v>1.79</v>
       </c>
       <c r="F305" t="n">
-        <v>3539423.799021981</v>
+        <v>22470.4041</v>
       </c>
       <c r="G305" t="n">
-        <v>1.755683333333334</v>
+        <v>1.755833333333334</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11093,22 +11089,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1.796</v>
+        <v>1.791</v>
       </c>
       <c r="C306" t="n">
-        <v>1.799</v>
+        <v>1.776</v>
       </c>
       <c r="D306" t="n">
-        <v>1.799</v>
+        <v>1.797</v>
       </c>
       <c r="E306" t="n">
         <v>1.776</v>
       </c>
       <c r="F306" t="n">
-        <v>785549.8473780189</v>
+        <v>3539423.799021981</v>
       </c>
       <c r="G306" t="n">
-        <v>1.755866666666667</v>
+        <v>1.755683333333334</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11128,22 +11124,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.809</v>
+        <v>1.796</v>
       </c>
       <c r="C307" t="n">
-        <v>1.809</v>
+        <v>1.799</v>
       </c>
       <c r="D307" t="n">
-        <v>1.809</v>
+        <v>1.799</v>
       </c>
       <c r="E307" t="n">
-        <v>1.809</v>
+        <v>1.776</v>
       </c>
       <c r="F307" t="n">
-        <v>277</v>
+        <v>785549.8473780189</v>
       </c>
       <c r="G307" t="n">
-        <v>1.756883333333334</v>
+        <v>1.755866666666667</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11163,22 +11159,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>1.79</v>
+        <v>1.809</v>
       </c>
       <c r="C308" t="n">
-        <v>1.79</v>
+        <v>1.809</v>
       </c>
       <c r="D308" t="n">
-        <v>1.79</v>
+        <v>1.809</v>
       </c>
       <c r="E308" t="n">
-        <v>1.79</v>
+        <v>1.809</v>
       </c>
       <c r="F308" t="n">
-        <v>33210.3786</v>
+        <v>277</v>
       </c>
       <c r="G308" t="n">
-        <v>1.757066666666667</v>
+        <v>1.756883333333334</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11210,10 +11206,10 @@
         <v>1.79</v>
       </c>
       <c r="F309" t="n">
-        <v>16085.6853</v>
+        <v>33210.3786</v>
       </c>
       <c r="G309" t="n">
-        <v>1.757716666666667</v>
+        <v>1.757066666666667</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11236,19 +11232,19 @@
         <v>1.79</v>
       </c>
       <c r="C310" t="n">
-        <v>1.778</v>
+        <v>1.79</v>
       </c>
       <c r="D310" t="n">
         <v>1.79</v>
       </c>
       <c r="E310" t="n">
-        <v>1.778</v>
+        <v>1.79</v>
       </c>
       <c r="F310" t="n">
-        <v>326683.4275</v>
+        <v>16085.6853</v>
       </c>
       <c r="G310" t="n">
-        <v>1.758283333333334</v>
+        <v>1.757716666666667</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11271,19 +11267,19 @@
         <v>1.79</v>
       </c>
       <c r="C311" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="D311" t="n">
         <v>1.79</v>
       </c>
       <c r="E311" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="F311" t="n">
-        <v>8546.0386</v>
+        <v>326683.4275</v>
       </c>
       <c r="G311" t="n">
-        <v>1.759116666666668</v>
+        <v>1.758283333333334</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11315,10 +11311,10 @@
         <v>1.79</v>
       </c>
       <c r="F312" t="n">
-        <v>6628.7755</v>
+        <v>8546.0386</v>
       </c>
       <c r="G312" t="n">
-        <v>1.759516666666668</v>
+        <v>1.759116666666668</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11350,10 +11346,10 @@
         <v>1.79</v>
       </c>
       <c r="F313" t="n">
-        <v>2098.08</v>
+        <v>6628.7755</v>
       </c>
       <c r="G313" t="n">
-        <v>1.760466666666668</v>
+        <v>1.759516666666668</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11385,10 +11381,10 @@
         <v>1.79</v>
       </c>
       <c r="F314" t="n">
-        <v>42619.4212</v>
+        <v>2098.08</v>
       </c>
       <c r="G314" t="n">
-        <v>1.761433333333334</v>
+        <v>1.760466666666668</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11408,22 +11404,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1.809</v>
+        <v>1.79</v>
       </c>
       <c r="C315" t="n">
-        <v>1.778</v>
+        <v>1.79</v>
       </c>
       <c r="D315" t="n">
-        <v>1.809</v>
+        <v>1.79</v>
       </c>
       <c r="E315" t="n">
-        <v>1.778</v>
+        <v>1.79</v>
       </c>
       <c r="F315" t="n">
-        <v>2939065.864</v>
+        <v>42619.4212</v>
       </c>
       <c r="G315" t="n">
-        <v>1.762183333333334</v>
+        <v>1.761433333333334</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11443,10 +11439,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="C316" t="n">
-        <v>1.809</v>
+        <v>1.778</v>
       </c>
       <c r="D316" t="n">
         <v>1.809</v>
@@ -11455,10 +11451,10 @@
         <v>1.778</v>
       </c>
       <c r="F316" t="n">
-        <v>639535.6089</v>
+        <v>2939065.864</v>
       </c>
       <c r="G316" t="n">
-        <v>1.763066666666668</v>
+        <v>1.762183333333334</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11478,22 +11474,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>1.807</v>
+        <v>1.808</v>
       </c>
       <c r="C317" t="n">
-        <v>1.807</v>
+        <v>1.809</v>
       </c>
       <c r="D317" t="n">
-        <v>1.807</v>
+        <v>1.809</v>
       </c>
       <c r="E317" t="n">
-        <v>1.807</v>
+        <v>1.778</v>
       </c>
       <c r="F317" t="n">
-        <v>25962.6031</v>
+        <v>639535.6089</v>
       </c>
       <c r="G317" t="n">
-        <v>1.764300000000001</v>
+        <v>1.763066666666668</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11513,22 +11509,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>1.778</v>
+        <v>1.807</v>
       </c>
       <c r="C318" t="n">
-        <v>1.777</v>
+        <v>1.807</v>
       </c>
       <c r="D318" t="n">
-        <v>1.778</v>
+        <v>1.807</v>
       </c>
       <c r="E318" t="n">
-        <v>1.777</v>
+        <v>1.807</v>
       </c>
       <c r="F318" t="n">
-        <v>173653.3938</v>
+        <v>25962.6031</v>
       </c>
       <c r="G318" t="n">
-        <v>1.764916666666668</v>
+        <v>1.764300000000001</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11548,22 +11544,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>1.805</v>
+        <v>1.778</v>
       </c>
       <c r="C319" t="n">
         <v>1.777</v>
       </c>
       <c r="D319" t="n">
-        <v>1.805</v>
+        <v>1.778</v>
       </c>
       <c r="E319" t="n">
         <v>1.777</v>
       </c>
       <c r="F319" t="n">
-        <v>65923.65820000001</v>
+        <v>173653.3938</v>
       </c>
       <c r="G319" t="n">
-        <v>1.765300000000001</v>
+        <v>1.764916666666668</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11583,22 +11579,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="C320" t="n">
-        <v>1.8</v>
+        <v>1.777</v>
       </c>
       <c r="D320" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="E320" t="n">
-        <v>1.8</v>
+        <v>1.777</v>
       </c>
       <c r="F320" t="n">
-        <v>286.1845</v>
+        <v>65923.65820000001</v>
       </c>
       <c r="G320" t="n">
-        <v>1.766416666666668</v>
+        <v>1.765300000000001</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11618,22 +11614,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1.797</v>
+        <v>1.8</v>
       </c>
       <c r="C321" t="n">
-        <v>1.798</v>
+        <v>1.8</v>
       </c>
       <c r="D321" t="n">
-        <v>1.798</v>
+        <v>1.8</v>
       </c>
       <c r="E321" t="n">
-        <v>1.761</v>
+        <v>1.8</v>
       </c>
       <c r="F321" t="n">
-        <v>892659.999</v>
+        <v>286.1845</v>
       </c>
       <c r="G321" t="n">
-        <v>1.767133333333334</v>
+        <v>1.766416666666668</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11653,22 +11649,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.761</v>
+        <v>1.797</v>
       </c>
       <c r="C322" t="n">
-        <v>1.761</v>
+        <v>1.798</v>
       </c>
       <c r="D322" t="n">
-        <v>1.797</v>
+        <v>1.798</v>
       </c>
       <c r="E322" t="n">
         <v>1.761</v>
       </c>
       <c r="F322" t="n">
-        <v>2438435</v>
+        <v>892659.999</v>
       </c>
       <c r="G322" t="n">
-        <v>1.767350000000001</v>
+        <v>1.767133333333334</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11688,22 +11684,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1.778</v>
+        <v>1.761</v>
       </c>
       <c r="C323" t="n">
-        <v>1.778</v>
+        <v>1.761</v>
       </c>
       <c r="D323" t="n">
-        <v>1.778</v>
+        <v>1.797</v>
       </c>
       <c r="E323" t="n">
-        <v>1.778</v>
+        <v>1.761</v>
       </c>
       <c r="F323" t="n">
-        <v>582.0151</v>
+        <v>2438435</v>
       </c>
       <c r="G323" t="n">
-        <v>1.767966666666668</v>
+        <v>1.767350000000001</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11735,10 +11731,10 @@
         <v>1.778</v>
       </c>
       <c r="F324" t="n">
-        <v>5000</v>
+        <v>582.0151</v>
       </c>
       <c r="G324" t="n">
-        <v>1.768183333333334</v>
+        <v>1.767966666666668</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11753,6 +11749,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F325" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G325" t="n">
+        <v>1.768183333333334</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest AOA.xlsx
+++ b/BackTest/2020-01-24 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1573,14 +1573,10 @@
         <v>-6321429.977233973</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1610,19 +1606,11 @@
         <v>-6477137.272233973</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1651,19 +1639,11 @@
         <v>-6477137.272233973</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,14 +1672,10 @@
         <v>-6422949.838833973</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1732,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1768,19 +1738,11 @@
         <v>-6422660.838833973</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -7056,7 +7018,7 @@
         <v>-12945659.94610526</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7287,7 +7249,7 @@
         <v>-12255713.86300526</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7353,7 +7315,7 @@
         <v>-10555817.59680526</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7386,7 +7348,7 @@
         <v>-13363160.75170526</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7419,7 +7381,7 @@
         <v>-13362829.59010526</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7452,7 +7414,7 @@
         <v>-13462829.59010526</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7485,7 +7447,7 @@
         <v>-13402722.33131327</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7551,7 +7513,7 @@
         <v>-13402722.33131327</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7584,7 +7546,7 @@
         <v>-13402722.33131327</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7650,7 +7612,7 @@
         <v>-12903341.86811327</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7716,7 +7678,7 @@
         <v>-13257803.98131327</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7749,7 +7711,7 @@
         <v>-13257803.98131327</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7782,7 +7744,7 @@
         <v>-13181866.87901327</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7815,7 +7777,7 @@
         <v>-13181866.87901327</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7848,7 +7810,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7881,7 +7843,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7914,7 +7876,7 @@
         <v>-12855580.99831327</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7947,7 +7909,7 @@
         <v>-12855016.78321327</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7980,7 +7942,7 @@
         <v>-12726589.46711327</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8013,7 +7975,7 @@
         <v>-11996713.46711327</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8046,7 +8008,7 @@
         <v>-15560151.46711327</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8079,7 +8041,7 @@
         <v>-15441547.90811327</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8112,7 +8074,7 @@
         <v>-18536114.90811327</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8475,7 +8437,7 @@
         <v>-21923011.68391327</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8541,7 +8503,7 @@
         <v>-24152984.68491327</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8574,7 +8536,7 @@
         <v>-24184555.05291327</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8607,7 +8569,7 @@
         <v>-24184555.05291327</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8640,7 +8602,7 @@
         <v>-24147313.26471327</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8673,7 +8635,7 @@
         <v>-24268831.17011327</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8706,7 +8668,7 @@
         <v>-24542420.66611327</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8739,7 +8701,7 @@
         <v>-24465415.50291327</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8772,7 +8734,7 @@
         <v>-24464804.38061327</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8805,7 +8767,7 @@
         <v>-25985404.40081327</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8838,7 +8800,7 @@
         <v>-28160094.95801327</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8871,7 +8833,7 @@
         <v>-28160094.95801327</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8904,7 +8866,7 @@
         <v>-27107495.06221327</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8937,7 +8899,7 @@
         <v>-30345477.06221327</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8970,7 +8932,7 @@
         <v>-30345104.34171327</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9135,7 +9097,7 @@
         <v>-33941879.72501327</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9201,7 +9163,7 @@
         <v>-34494637.79661327</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9300,7 +9262,7 @@
         <v>-33683214.03541327</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9333,7 +9295,7 @@
         <v>-34953217.71541326</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9366,7 +9328,7 @@
         <v>-34953217.71541326</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9399,7 +9361,7 @@
         <v>-32566822.71541326</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9432,7 +9394,7 @@
         <v>-33642662.71541326</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9465,7 +9427,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9498,7 +9460,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9531,7 +9493,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9564,7 +9526,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9597,7 +9559,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9630,7 +9592,7 @@
         <v>-33945302.19411326</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9663,7 +9625,7 @@
         <v>-33945302.19411326</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9696,7 +9658,7 @@
         <v>-36213214.19411326</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9729,7 +9691,7 @@
         <v>-36213214.19411326</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9795,7 +9757,7 @@
         <v>-36212663.78081326</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9894,7 +9856,7 @@
         <v>-36212663.78081326</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9927,7 +9889,7 @@
         <v>-39470697.78081326</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9960,7 +9922,7 @@
         <v>-40618884.78081326</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9993,7 +9955,7 @@
         <v>-40618884.78081326</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10026,7 +9988,7 @@
         <v>-40618884.78081326</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10059,7 +10021,7 @@
         <v>-40903945.37281326</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10125,7 +10087,7 @@
         <v>-40903945.37281326</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10257,7 +10219,7 @@
         <v>-41251967.55071326</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10290,7 +10252,7 @@
         <v>-41251967.55071326</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10323,7 +10285,7 @@
         <v>-41252247.55071326</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10356,7 +10318,7 @@
         <v>-41254065.73251326</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10389,7 +10351,7 @@
         <v>-41253626.16551326</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10422,7 +10384,7 @@
         <v>-41255444.34731326</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10455,7 +10417,7 @@
         <v>-41257262.52911326</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10488,7 +10450,7 @@
         <v>-39337813.76751326</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10554,7 +10516,7 @@
         <v>-41138383.32521326</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10587,7 +10549,7 @@
         <v>-43699606.55521326</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -13029,10 +12991,14 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="J382" t="n">
+        <v>1.761</v>
+      </c>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
@@ -13062,11 +13028,19 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="J383" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13095,11 +13069,19 @@
         <v>-68846091.89375722</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="J384" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13403,6 +13385,6 @@
       <c r="M393" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest AOA.xlsx
+++ b/BackTest/2020-01-24 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4821720.851400001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3933608.410799999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4349263.304199999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8011681.598733971</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8004065.635833971</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10264040.63583397</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10263740.63583397</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-12110500.63583397</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-14558128.79823397</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-14662796.72633397</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-11761416.72633397</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11761133.72633397</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-11473491.58843397</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-10487856.58843397</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-13124367.58843397</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-13124084.58843397</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-13129488.63673397</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-13123803.58843397</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-13257803.98131327</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-13181866.87901327</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-13181866.87901327</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-12855580.99831327</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-12855016.78321327</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-12726589.46711327</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-11996713.46711327</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-15560151.46711327</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-15441547.90811327</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-18536114.90811327</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-21923011.68391327</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-24152984.68491327</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-24184555.05291327</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-24184555.05291327</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-24147313.26471327</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-24268831.17011327</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-24542420.66611327</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-24465415.50291327</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-24464804.38061327</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-25985404.40081327</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-28160094.95801327</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-28160094.95801327</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-27107495.06221327</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-30345477.06221327</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-30345104.34171327</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-33941879.72501327</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-34494637.79661327</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-33683214.03541327</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-34953217.71541326</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-34953217.71541326</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-32566822.71541326</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-33642662.71541326</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-34010617.34331326</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-33945302.19411326</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-33945302.19411326</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-36213214.19411326</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-36213214.19411326</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-36212663.78081326</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-36212663.78081326</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-39470697.78081326</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-40618884.78081326</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-40618884.78081326</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-40618884.78081326</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-40903945.37281326</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-40903945.37281326</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-41251967.55071326</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-41251967.55071326</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-41252247.55071326</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-41254065.73251326</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-41253626.16551326</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-41255444.34731326</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-41257262.52911326</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-39337813.76751326</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-41138383.32521326</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-43699606.55521326</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11143,10 +11143,14 @@
         <v>-53298462.96251326</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1.733</v>
+      </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
@@ -11179,8 +11183,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11222,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11261,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11300,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11339,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11375,19 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11416,19 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,13 +12549,19 @@
         <v>-59912332.92241325</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L362" t="n">
-        <v>1</v>
+        <v>1.028467974610502</v>
       </c>
       <c r="M362" t="inlineStr"/>
     </row>
@@ -12397,7 +12621,7 @@
         <v>-63451756.72143523</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12654,7 @@
         <v>-62666206.87405722</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12687,7 @@
         <v>-62665929.87405722</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12720,7 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12753,7 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12786,7 @@
         <v>-63025823.68015722</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12819,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12852,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12885,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12918,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12991,14 +13215,10 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="J382" t="n">
-        <v>1.761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
@@ -13028,19 +13248,11 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J383" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13069,19 +13281,11 @@
         <v>-68846091.89375722</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J384" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13385,6 +13589,6 @@
       <c r="M393" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest AOA.xlsx
+++ b/BackTest/2020-01-24 BackTest AOA.xlsx
@@ -451,7 +451,7 @@
         <v>4821720.851400001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3933608.410799999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4349263.304199999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8011681.598733971</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8004065.635833971</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10264040.63583397</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10263740.63583397</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-12110500.63583397</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-14558128.79823397</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-14662796.72633397</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-11761416.72633397</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11761133.72633397</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-11473491.58843397</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-10487856.58843397</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-13124367.58843397</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-13124084.58843397</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-13129488.63673397</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-13123803.58843397</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-12855580.99831327</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-12855016.78321327</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-12726589.46711327</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-11996713.46711327</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-15560151.46711327</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-15441547.90811327</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-18536114.90811327</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-17160833.95881327</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-17160558.95881327</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-20046837.95881327</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-19143794.07901327</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-19667656.07901327</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-24153350.68391327</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10714,11 +10714,17 @@
         <v>-47918348.32121326</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1.733</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10753,17 @@
         <v>-44222269.32121326</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1.732</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10796,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +10829,17 @@
         <v>-43473531.32121326</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1.756</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10868,17 @@
         <v>-43272178.99571326</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>1.733</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10907,17 @@
         <v>-42166442.57101326</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1.74</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +10946,17 @@
         <v>-45556965.57101326</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1.754</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +10985,17 @@
         <v>-45553410.44151326</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1.733</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11024,17 @@
         <v>-47223920.44151326</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>1.755</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11067,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11104,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11141,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11178,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,15 +11211,15 @@
         <v>-53298462.96251326</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="J326" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11183,12 +11251,10 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -11219,15 +11285,15 @@
         <v>-57103681.96251326</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1.733</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L328" t="n">
@@ -11261,9 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11300,9 +11364,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11339,9 +11401,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,14 +11435,10 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="J332" t="n">
-        <v>1.733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,14 +11472,10 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="J333" t="n">
-        <v>1.733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,9 +11512,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,9 +11549,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11538,9 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,9 +11623,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11616,9 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,9 +11697,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,9 +11734,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,9 +11771,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11772,9 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11811,9 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11850,9 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11889,9 +11919,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11928,9 +11956,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11967,9 +11993,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12006,9 +12030,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,9 +12067,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,9 +12104,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12123,9 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12162,9 +12178,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12201,9 +12215,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12240,9 +12252,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,9 +12289,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12318,9 +12326,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12357,9 +12363,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12396,9 +12400,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12435,9 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12474,9 +12474,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12513,9 +12511,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12549,19 +12545,17 @@
         <v>-59912332.92241325</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1.733</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
-        <v>1.028467974610502</v>
+        <v>1</v>
       </c>
       <c r="M362" t="inlineStr"/>
     </row>
@@ -12592,7 +12586,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12621,11 +12619,15 @@
         <v>-63451756.72143523</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12654,11 +12656,15 @@
         <v>-62666206.87405722</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12687,11 +12693,15 @@
         <v>-62665929.87405722</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12720,11 +12730,15 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12753,11 +12767,15 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12786,11 +12804,15 @@
         <v>-63025823.68015722</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12819,11 +12841,15 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12852,11 +12878,15 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12885,11 +12915,15 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12918,11 +12952,15 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12951,11 +12989,17 @@
         <v>-65956343.50555722</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1.79</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12984,11 +13028,17 @@
         <v>-65316807.89665722</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1.778</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13017,11 +13067,17 @@
         <v>-65342770.49975722</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1.809</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13054,7 +13110,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13083,11 +13143,17 @@
         <v>-65516423.89355722</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1.777</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13116,11 +13182,17 @@
         <v>-65516137.70905722</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1.777</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13153,7 +13225,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13182,11 +13258,17 @@
         <v>-68847232.70805722</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1.798</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13215,11 +13297,17 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.761</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13248,11 +13336,17 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.778</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13281,11 +13375,17 @@
         <v>-68846091.89375722</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1.778</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +13414,17 @@
         <v>-71163233.68955722</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1.796</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13347,11 +13453,17 @@
         <v>-71163233.68955722</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1.761</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13380,11 +13492,17 @@
         <v>-71162954.68955722</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1.761</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13413,11 +13531,17 @@
         <v>-71161825.95465723</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1.793</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13446,11 +13570,17 @@
         <v>-72582190.95465723</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1.796</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13479,11 +13609,17 @@
         <v>-72582190.95465723</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1.761</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13512,11 +13648,17 @@
         <v>-72427679.62285723</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>1.761</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13545,11 +13687,17 @@
         <v>-72427679.62285723</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1.798</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13578,11 +13726,17 @@
         <v>-72426949.77294061</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1.798</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
